--- a/database/CornTempRes.xlsx
+++ b/database/CornTempRes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="detail" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
   <si>
     <t>拍卖日期</t>
   </si>
@@ -137,6 +137,36 @@
     <t>第2周</t>
   </si>
   <si>
+    <t>第3周</t>
+  </si>
+  <si>
+    <t>第4周</t>
+  </si>
+  <si>
+    <t>第5周</t>
+  </si>
+  <si>
+    <t>第6周</t>
+  </si>
+  <si>
+    <t>第7周</t>
+  </si>
+  <si>
+    <t>第8周</t>
+  </si>
+  <si>
+    <t>第9周</t>
+  </si>
+  <si>
+    <t>第10周</t>
+  </si>
+  <si>
+    <t>第11周</t>
+  </si>
+  <si>
+    <t>第12周</t>
+  </si>
+  <si>
     <t>vol</t>
   </si>
   <si>
@@ -199,13 +229,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0&quot;万吨&quot;"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,9 +272,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,20 +325,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +346,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -303,7 +377,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,26 +399,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -355,38 +422,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,7 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399945066682943"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +492,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,7 +612,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,121 +642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,30 +767,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -746,30 +777,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,11 +796,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,16 +839,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -826,137 +881,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1019,6 +1074,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1052,6 +1110,18 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,16 +1131,48 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1260,16 +1362,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,15 +1382,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.9999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1358,16 +1451,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,13 +1472,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.8126</c:v>
+                  <c:v>0.1054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9834</c:v>
+                  <c:v>0.0272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9922</c:v>
+                  <c:v>0.0387</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,8 +1496,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-444160576"/>
-        <c:axId val="-444162208"/>
+        <c:axId val="1498330304"/>
+        <c:axId val="1498325408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1543,16 +1639,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1563,15 +1659,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1559</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1607</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1795</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1714,16 +1801,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,13 +1822,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1542</c:v>
+                  <c:v>1705</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1568</c:v>
+                  <c:v>1697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1713</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1738</c:v>
+                  <c:v>1715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1758,11 +1848,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-444150784"/>
-        <c:axId val="-444148608"/>
+        <c:axId val="1498337376"/>
+        <c:axId val="1498328672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-444150784"/>
+        <c:axId val="1498337376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1891,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444148608"/>
+        <c:crossAx val="1498328672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1809,7 +1899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-444148608"/>
+        <c:axId val="1498328672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,12 +1946,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444150784"/>
+        <c:crossAx val="1498337376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-444160576"/>
+        <c:axId val="1498330304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,14 +1980,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444162208"/>
+        <c:crossAx val="1498325408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-444162208"/>
+        <c:axId val="1498325408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +2020,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444160576"/>
+        <c:crossAx val="1498330304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2134,16 +2224,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,9 +2244,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2226,16 +2313,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2247,13 +2334,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.0878</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.0279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.1161</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,8 +2358,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-444146976"/>
-        <c:axId val="-444148064"/>
+        <c:axId val="1498328128"/>
+        <c:axId val="1498331392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2411,16 +2501,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2431,9 +2521,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1606</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2576,16 +2663,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2597,13 +2684,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1617</c:v>
+                  <c:v>1780</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1679</c:v>
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1780</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1802</c:v>
+                  <c:v>1783</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2620,11 +2710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-444150240"/>
-        <c:axId val="-444147520"/>
+        <c:axId val="1498327584"/>
+        <c:axId val="1498325952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-444150240"/>
+        <c:axId val="1498327584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2663,7 +2753,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444147520"/>
+        <c:crossAx val="1498325952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2671,7 +2761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-444147520"/>
+        <c:axId val="1498325952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2718,12 +2808,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444150240"/>
+        <c:crossAx val="1498327584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-444146976"/>
+        <c:axId val="1498328128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2752,7 +2842,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444148064"/>
+        <c:crossAx val="1498331392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2760,7 +2850,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-444148064"/>
+        <c:axId val="1498331392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,7 +2883,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444146976"/>
+        <c:crossAx val="1498328128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2997,16 +3087,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3017,12 +3107,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3092,16 +3176,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3113,13 +3197,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6828</c:v>
+                  <c:v>0.054</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9656</c:v>
+                  <c:v>0.0733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0616</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.774</c:v>
+                  <c:v>0.0199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3134,8 +3221,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-444155136"/>
-        <c:axId val="-444161664"/>
+        <c:axId val="1498334112"/>
+        <c:axId val="1498330848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3277,16 +3364,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3297,12 +3384,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1422</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1393</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3445,16 +3526,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3466,13 +3547,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1564</c:v>
+                  <c:v>1687</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1571</c:v>
+                  <c:v>1735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1734</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1683</c:v>
+                  <c:v>1747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3489,11 +3573,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-444155680"/>
-        <c:axId val="-444151328"/>
+        <c:axId val="1498323776"/>
+        <c:axId val="1498333568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-444155680"/>
+        <c:axId val="1498323776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3532,7 +3616,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444151328"/>
+        <c:crossAx val="1498333568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3540,7 +3624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-444151328"/>
+        <c:axId val="1498333568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,12 +3671,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444155680"/>
+        <c:crossAx val="1498323776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="-444155136"/>
+        <c:axId val="1498334112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,14 +3705,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444161664"/>
+        <c:crossAx val="1498330848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-444161664"/>
+        <c:axId val="1498330848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,7 +3745,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444155136"/>
+        <c:crossAx val="1498334112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3865,16 +3949,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3886,16 +3970,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.4741</c:v>
+                  <c:v>0.0199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5068</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.9063</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8705</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3966,16 +4050,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3987,13 +4071,16 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.2076</c:v>
+                  <c:v>0.0618</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3895</c:v>
+                  <c:v>0.0133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6548</c:v>
+                  <c:v>0.0188</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4008,8 +4095,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-444158944"/>
-        <c:axId val="-444159488"/>
+        <c:axId val="1498333024"/>
+        <c:axId val="1498337920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4151,16 +4238,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4172,16 +4259,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1424</c:v>
+                  <c:v>1590</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1436</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1639</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1626</c:v>
+                  <c:v>1580</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4325,16 +4412,16 @@
                 <c:formatCode>yyyy/m/d</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" c:formatCode="yyyy/m/d">
-                  <c:v>43391</c:v>
+                  <c:v>43727</c:v>
                 </c:pt>
                 <c:pt idx="1" c:formatCode="yyyy/m/d">
-                  <c:v>43398</c:v>
+                  <c:v>43734</c:v>
                 </c:pt>
                 <c:pt idx="2" c:formatCode="yyyy/m/d">
-                  <c:v>43608</c:v>
+                  <c:v>43748</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="yyyy/m/d">
-                  <c:v>43615</c:v>
+                  <c:v>43755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4346,13 +4433,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1461</c:v>
+                  <c:v>1618</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1477</c:v>
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1659</c:v>
+                  <c:v>1604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4369,11 +4459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-444157312"/>
-        <c:axId val="-444161120"/>
+        <c:axId val="1498332480"/>
+        <c:axId val="1498324320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-444157312"/>
+        <c:axId val="1498332480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4412,7 +4502,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444161120"/>
+        <c:crossAx val="1498324320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4420,7 +4510,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-444161120"/>
+        <c:axId val="1498324320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4467,12 +4557,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444157312"/>
+        <c:crossAx val="1498332480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-444158944"/>
+        <c:axId val="1498333024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4501,7 +4591,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444159488"/>
+        <c:crossAx val="1498337920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4509,7 +4599,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-444159488"/>
+        <c:axId val="1498337920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4542,7 +4632,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-444158944"/>
+        <c:crossAx val="1498333024"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6874,16 +6964,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>332489</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>129001</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>399164</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>43276</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6892,7 +6982,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3067050" y="4295775"/>
+          <a:off x="4848225" y="4171950"/>
           <a:ext cx="7285355" cy="4310380"/>
           <a:chOff x="3095625" y="4295775"/>
           <a:chExt cx="7209989" cy="5052012"/>
@@ -6981,7 +7071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8896350" y="3600450"/>
+          <a:off x="8896350" y="2876550"/>
           <a:ext cx="1247775" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -7636,211 +7726,212 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BA21"/>
+  <dimension ref="A1:BB40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="AK16" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="$A40:$XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="27" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="28" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="28" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="27" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="28" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="29" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="30" customWidth="1"/>
     <col min="7" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="11" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11" style="30" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="31" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="29" customWidth="1"/>
+    <col min="10" max="10" width="11" style="31" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="32" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="30" customWidth="1"/>
     <col min="13" max="14" width="11" customWidth="1"/>
     <col min="15" max="15" width="11" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11" style="30" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="31" customWidth="1"/>
-    <col min="18" max="18" width="8.5" style="29" customWidth="1"/>
+    <col min="16" max="16" width="11" style="31" customWidth="1"/>
+    <col min="17" max="17" width="8.5" style="32" customWidth="1"/>
+    <col min="18" max="18" width="8.5" style="30" customWidth="1"/>
     <col min="19" max="20" width="11" customWidth="1"/>
     <col min="21" max="21" width="11" style="3" customWidth="1"/>
-    <col min="22" max="22" width="11" style="30" customWidth="1"/>
-    <col min="23" max="23" width="7.5" style="31" customWidth="1"/>
-    <col min="24" max="24" width="8.5" style="29" customWidth="1"/>
+    <col min="22" max="22" width="11" style="31" customWidth="1"/>
+    <col min="23" max="23" width="7.5" style="32" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="30" customWidth="1"/>
     <col min="25" max="26" width="11" customWidth="1"/>
     <col min="27" max="27" width="11" style="3" customWidth="1"/>
-    <col min="28" max="28" width="11" style="30" customWidth="1"/>
-    <col min="29" max="29" width="7.5" style="32" customWidth="1"/>
-    <col min="30" max="30" width="9.5" style="33" customWidth="1"/>
+    <col min="28" max="28" width="11" style="31" customWidth="1"/>
+    <col min="29" max="29" width="7.5" style="33" customWidth="1"/>
+    <col min="30" max="30" width="9.5" style="34" customWidth="1"/>
+    <col min="32" max="32" width="12.625"/>
     <col min="33" max="33" width="9.5" style="3" customWidth="1"/>
-    <col min="34" max="34" width="9" style="30"/>
-    <col min="35" max="35" width="9.5" style="31" customWidth="1"/>
-    <col min="36" max="36" width="9.5" style="29" customWidth="1"/>
+    <col min="34" max="34" width="9" style="31"/>
+    <col min="35" max="35" width="9.5" style="32" customWidth="1"/>
+    <col min="36" max="36" width="9.5" style="30" customWidth="1"/>
     <col min="39" max="39" width="9.5" style="3" customWidth="1"/>
-    <col min="40" max="40" width="9.375" style="30"/>
-    <col min="41" max="41" width="9.5" style="31" customWidth="1"/>
-    <col min="42" max="42" width="9.5" style="29" customWidth="1"/>
+    <col min="40" max="40" width="9.375" style="31"/>
+    <col min="41" max="41" width="9.5" style="32" customWidth="1"/>
+    <col min="42" max="42" width="9.5" style="30" customWidth="1"/>
     <col min="45" max="45" width="9.5" style="3" customWidth="1"/>
-    <col min="46" max="46" width="9" style="30"/>
-    <col min="47" max="47" width="9" style="31"/>
-    <col min="48" max="48" width="9.5" style="29" customWidth="1"/>
+    <col min="46" max="46" width="9" style="31"/>
+    <col min="47" max="47" width="9" style="32"/>
+    <col min="48" max="48" width="9.5" style="30" customWidth="1"/>
     <col min="51" max="51" width="9.5" style="3" customWidth="1"/>
-    <col min="52" max="52" width="9" style="30"/>
-    <col min="53" max="53" width="9.5" style="31" customWidth="1"/>
-    <col min="54" max="54" width="9" style="34"/>
+    <col min="52" max="52" width="9" style="31"/>
+    <col min="53" max="53" width="9.5" style="32" customWidth="1"/>
+    <col min="54" max="54" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41">
         <v>2014</v>
       </c>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="48">
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="58">
         <v>2015</v>
       </c>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
     </row>
     <row r="2" spans="1:53">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="41" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="43" t="s">
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="46" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="47" t="s">
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
+      <c r="V2" s="55"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="41" t="s">
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="43" t="s">
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="46" t="s">
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="48"/>
+      <c r="AP2" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="46"/>
-      <c r="AR2" s="46"/>
-      <c r="AS2" s="46"/>
-      <c r="AT2" s="46"/>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="47" t="s">
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="55"/>
+      <c r="AU2" s="55"/>
+      <c r="AV2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="AW2" s="47"/>
-      <c r="AX2" s="47"/>
-      <c r="AY2" s="47"/>
-      <c r="AZ2" s="47"/>
-      <c r="BA2" s="47"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
     </row>
     <row r="3" spans="1:53">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="40">
         <v>2014</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="40">
         <v>2015</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
@@ -7852,13 +7943,13 @@
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="M3" t="s">
@@ -7870,13 +7961,13 @@
       <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="29" t="s">
+      <c r="R3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="S3" t="s">
@@ -7888,13 +7979,13 @@
       <c r="U3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="29" t="s">
+      <c r="X3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="Y3" t="s">
@@ -7906,13 +7997,13 @@
       <c r="AA3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AB3" s="30" t="s">
+      <c r="AB3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AC3" s="32" t="s">
+      <c r="AC3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="34" t="s">
         <v>8</v>
       </c>
       <c r="AE3" t="s">
@@ -7924,13 +8015,13 @@
       <c r="AG3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="30" t="s">
+      <c r="AH3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AI3" s="31" t="s">
+      <c r="AI3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AJ3" s="29" t="s">
+      <c r="AJ3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="AK3" t="s">
@@ -7942,13 +8033,13 @@
       <c r="AM3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AN3" s="30" t="s">
+      <c r="AN3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AO3" s="31" t="s">
+      <c r="AO3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AP3" s="29" t="s">
+      <c r="AP3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="AQ3" t="s">
@@ -7960,13 +8051,13 @@
       <c r="AS3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AT3" s="30" t="s">
+      <c r="AT3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AU3" s="31" t="s">
+      <c r="AU3" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AV3" s="29" t="s">
+      <c r="AV3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="AW3" t="s">
@@ -7978,10 +8069,10 @@
       <c r="AY3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AZ3" s="30" t="s">
+      <c r="AZ3" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="BA3" s="31" t="s">
+      <c r="BA3" s="32" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7989,22 +8080,22 @@
       <c r="A4" s="24">
         <v>43286</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="38">
         <f>J4+P4+V4+AB4+AH4+AN4+AT4+AZ4</f>
         <v>50918887</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="29">
         <f t="shared" ref="D4:D9" si="0">+K4+Q4+W4+AC4</f>
         <v>12386990</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="29">
         <f t="shared" ref="E4:E9" si="1">AI4+AO4+AU4+BA4</f>
         <v>111743623</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="30">
         <v>31391100</v>
       </c>
       <c r="G4">
@@ -8016,14 +8107,14 @@
       <c r="I4" s="3">
         <v>0.2624</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="31">
         <v>20831716</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="32">
         <f t="shared" ref="K4:K9" si="2">F4-J4</f>
         <v>10559384</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="30">
         <v>12562000</v>
       </c>
       <c r="M4" s="1">
@@ -8035,14 +8126,14 @@
       <c r="O4" s="2">
         <v>0.7795</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="29">
         <v>11320568</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="32">
         <f t="shared" ref="Q4:Q9" si="3">L4-P4</f>
         <v>1241432</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="30">
         <v>3358700</v>
       </c>
       <c r="S4" s="1">
@@ -8054,14 +8145,14 @@
       <c r="U4" s="2">
         <v>0.9834</v>
       </c>
-      <c r="V4" s="28">
+      <c r="V4" s="29">
         <v>3183831</v>
       </c>
-      <c r="W4" s="31">
+      <c r="W4" s="32">
         <f t="shared" ref="W4:W9" si="4">R4-V4</f>
         <v>174869</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="30">
         <v>5307700</v>
       </c>
       <c r="Y4" s="1">
@@ -8073,14 +8164,14 @@
       <c r="AA4" s="2">
         <v>0.6904</v>
       </c>
-      <c r="AB4" s="28">
+      <c r="AB4" s="29">
         <v>4896395</v>
       </c>
-      <c r="AC4" s="32">
+      <c r="AC4" s="33">
         <f t="shared" ref="AC4:AC9" si="5">X4-AB4</f>
         <v>411305</v>
       </c>
-      <c r="AD4" s="33">
+      <c r="AD4" s="34">
         <v>45620000</v>
       </c>
       <c r="AE4" s="1">
@@ -8092,14 +8183,14 @@
       <c r="AG4" s="2">
         <v>0.1156</v>
       </c>
-      <c r="AH4" s="28">
+      <c r="AH4" s="29">
         <v>1361935</v>
       </c>
-      <c r="AI4" s="31">
+      <c r="AI4" s="32">
         <f t="shared" ref="AI4:AI9" si="6">AD4-AH4</f>
         <v>44258065</v>
       </c>
-      <c r="AJ4" s="29">
+      <c r="AJ4" s="30">
         <v>44510000</v>
       </c>
       <c r="AK4" s="1">
@@ -8111,14 +8202,14 @@
       <c r="AM4" s="2">
         <v>0.1873</v>
       </c>
-      <c r="AN4" s="28">
+      <c r="AN4" s="29">
         <v>5847983</v>
       </c>
-      <c r="AO4" s="31">
+      <c r="AO4" s="32">
         <f t="shared" ref="AO4:AO9" si="7">AJ4-AN4</f>
         <v>38662017</v>
       </c>
-      <c r="AP4" s="29">
+      <c r="AP4" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ4" s="1">
@@ -8130,14 +8221,14 @@
       <c r="AS4" s="2">
         <v>0.4065</v>
       </c>
-      <c r="AT4" s="28">
+      <c r="AT4" s="29">
         <v>1341714</v>
       </c>
-      <c r="AU4" s="31">
+      <c r="AU4" s="32">
         <f t="shared" ref="AU4:AU9" si="8">AP4-AT4</f>
         <v>9898286</v>
       </c>
-      <c r="AV4" s="29">
+      <c r="AV4" s="30">
         <v>21060000</v>
       </c>
       <c r="AW4" s="1">
@@ -8149,10 +8240,10 @@
       <c r="AY4" s="2">
         <v>0.2374</v>
       </c>
-      <c r="AZ4" s="28">
+      <c r="AZ4" s="29">
         <v>2134745</v>
       </c>
-      <c r="BA4" s="31">
+      <c r="BA4" s="32">
         <f t="shared" ref="BA4:BA9" si="9">AV4-AZ4</f>
         <v>18925255</v>
       </c>
@@ -8161,22 +8252,22 @@
       <c r="A5" s="24">
         <v>43293</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="38">
         <f t="shared" ref="C5:C12" si="10">J5+P5+V5+AB5+AH5+AN5+AT5+AZ5</f>
         <v>53095972</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="29">
         <f t="shared" si="0"/>
         <v>11488035</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="29">
         <f t="shared" si="1"/>
         <v>110465493</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="30">
         <v>31391100</v>
       </c>
       <c r="G5">
@@ -8188,15 +8279,15 @@
       <c r="I5" s="3">
         <v>0.3567</v>
       </c>
-      <c r="J5" s="30">
+      <c r="J5" s="31">
         <f>J4+G5</f>
         <v>21571346</v>
       </c>
-      <c r="K5" s="31">
+      <c r="K5" s="32">
         <f t="shared" si="2"/>
         <v>9819754</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="30">
         <v>12562000</v>
       </c>
       <c r="M5" s="1">
@@ -8208,15 +8299,15 @@
       <c r="O5" s="2">
         <v>0.6683</v>
       </c>
-      <c r="P5" s="30">
+      <c r="P5" s="31">
         <f t="shared" ref="P5:P10" si="11">P4+M5</f>
         <v>11440361</v>
       </c>
-      <c r="Q5" s="31">
+      <c r="Q5" s="32">
         <f t="shared" si="3"/>
         <v>1121639</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="30">
         <v>3358700</v>
       </c>
       <c r="S5" s="1">
@@ -8228,15 +8319,15 @@
       <c r="U5" s="2">
         <v>1</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="31">
         <f t="shared" ref="V5:V10" si="12">V4+S5</f>
         <v>3190111</v>
       </c>
-      <c r="W5" s="31">
+      <c r="W5" s="32">
         <f t="shared" si="4"/>
         <v>168589</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="30">
         <v>5307700</v>
       </c>
       <c r="Y5" s="1">
@@ -8248,15 +8339,15 @@
       <c r="AA5" s="2">
         <v>0.2567</v>
       </c>
-      <c r="AB5" s="30">
+      <c r="AB5" s="31">
         <f t="shared" ref="AB5:AB10" si="13">AB4+Y5</f>
         <v>4929647</v>
       </c>
-      <c r="AC5" s="32">
+      <c r="AC5" s="33">
         <f t="shared" si="5"/>
         <v>378053</v>
       </c>
-      <c r="AD5" s="33">
+      <c r="AD5" s="34">
         <v>45620000</v>
       </c>
       <c r="AE5">
@@ -8268,15 +8359,15 @@
       <c r="AG5" s="3">
         <v>0.1042</v>
       </c>
-      <c r="AH5" s="28">
+      <c r="AH5" s="29">
         <f>AH4+AE5</f>
         <v>1564641</v>
       </c>
-      <c r="AI5" s="31">
+      <c r="AI5" s="32">
         <f t="shared" si="6"/>
         <v>44055359</v>
       </c>
-      <c r="AJ5" s="29">
+      <c r="AJ5" s="30">
         <v>44510000</v>
       </c>
       <c r="AK5" s="1">
@@ -8288,15 +8379,15 @@
       <c r="AM5" s="2">
         <v>0.2678</v>
       </c>
-      <c r="AN5" s="28">
+      <c r="AN5" s="29">
         <f>AN4+AK5</f>
         <v>6467912</v>
       </c>
-      <c r="AO5" s="31">
+      <c r="AO5" s="32">
         <f t="shared" si="7"/>
         <v>38042088</v>
       </c>
-      <c r="AP5" s="29">
+      <c r="AP5" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ5" s="1">
@@ -8308,15 +8399,15 @@
       <c r="AS5" s="2">
         <v>0.3525</v>
       </c>
-      <c r="AT5" s="30">
+      <c r="AT5" s="31">
         <f>AT4+AQ5</f>
         <v>1515100</v>
       </c>
-      <c r="AU5" s="31">
+      <c r="AU5" s="32">
         <f t="shared" si="8"/>
         <v>9724900</v>
       </c>
-      <c r="AV5" s="29">
+      <c r="AV5" s="30">
         <v>21060000</v>
       </c>
       <c r="AW5" s="1">
@@ -8328,11 +8419,11 @@
       <c r="AY5" s="2">
         <v>0.3264</v>
       </c>
-      <c r="AZ5" s="30">
+      <c r="AZ5" s="31">
         <f>AZ4+AW5</f>
         <v>2416854</v>
       </c>
-      <c r="BA5" s="31">
+      <c r="BA5" s="32">
         <f t="shared" si="9"/>
         <v>18643146</v>
       </c>
@@ -8341,22 +8432,22 @@
       <c r="A6" s="24">
         <v>43300</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="38">
         <f t="shared" si="10"/>
         <v>55307130</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="29">
         <f t="shared" si="0"/>
         <v>10773120</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="29">
         <f t="shared" si="1"/>
         <v>108969250</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="30">
         <v>31391100</v>
       </c>
       <c r="G6">
@@ -8368,15 +8459,15 @@
       <c r="I6" s="3">
         <v>0.318</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="31">
         <f>J5+G6</f>
         <v>22231588</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="32">
         <f t="shared" si="2"/>
         <v>9159512</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="30">
         <v>12562000</v>
       </c>
       <c r="M6" s="1">
@@ -8388,15 +8479,15 @@
       <c r="O6" s="3">
         <v>0.4597</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="31">
         <f t="shared" si="11"/>
         <v>11467361</v>
       </c>
-      <c r="Q6" s="31">
+      <c r="Q6" s="32">
         <f t="shared" si="3"/>
         <v>1094639</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="30">
         <v>3358700</v>
       </c>
       <c r="S6" s="1">
@@ -8408,15 +8499,15 @@
       <c r="U6" s="3">
         <v>0.9952</v>
       </c>
-      <c r="V6" s="30">
+      <c r="V6" s="31">
         <f t="shared" si="12"/>
         <v>3207676</v>
       </c>
-      <c r="W6" s="31">
+      <c r="W6" s="32">
         <f t="shared" si="4"/>
         <v>151024</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="30">
         <v>5307700</v>
       </c>
       <c r="Y6" s="1">
@@ -8428,15 +8519,15 @@
       <c r="AA6" s="3">
         <v>0.2176</v>
       </c>
-      <c r="AB6" s="30">
+      <c r="AB6" s="31">
         <f t="shared" si="13"/>
         <v>4939755</v>
       </c>
-      <c r="AC6" s="32">
+      <c r="AC6" s="33">
         <f t="shared" si="5"/>
         <v>367945</v>
       </c>
-      <c r="AD6" s="33">
+      <c r="AD6" s="34">
         <v>45620000</v>
       </c>
       <c r="AE6">
@@ -8448,15 +8539,15 @@
       <c r="AG6" s="3">
         <v>0.2428</v>
       </c>
-      <c r="AH6" s="28">
+      <c r="AH6" s="29">
         <f t="shared" ref="AH6:AH9" si="14">AH5+AE6</f>
         <v>2005952</v>
       </c>
-      <c r="AI6" s="31">
+      <c r="AI6" s="32">
         <f t="shared" si="6"/>
         <v>43614048</v>
       </c>
-      <c r="AJ6" s="29">
+      <c r="AJ6" s="30">
         <v>44510000</v>
       </c>
       <c r="AK6" s="1">
@@ -8468,15 +8559,15 @@
       <c r="AM6" s="3">
         <v>0.2281</v>
       </c>
-      <c r="AN6" s="28">
+      <c r="AN6" s="29">
         <f t="shared" ref="AN6:AN9" si="15">AN5+AK6</f>
         <v>7025958</v>
       </c>
-      <c r="AO6" s="31">
+      <c r="AO6" s="32">
         <f t="shared" si="7"/>
         <v>37484042</v>
       </c>
-      <c r="AP6" s="29">
+      <c r="AP6" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ6" s="1">
@@ -8488,15 +8579,15 @@
       <c r="AS6" s="3">
         <v>0.3976</v>
       </c>
-      <c r="AT6" s="30">
+      <c r="AT6" s="31">
         <f t="shared" ref="AT6:AT9" si="16">AT5+AQ6</f>
         <v>1707262</v>
       </c>
-      <c r="AU6" s="31">
+      <c r="AU6" s="32">
         <f t="shared" si="8"/>
         <v>9532738</v>
       </c>
-      <c r="AV6" s="29">
+      <c r="AV6" s="30">
         <v>21060000</v>
       </c>
       <c r="AW6" s="1">
@@ -8508,11 +8599,11 @@
       <c r="AY6" s="3">
         <v>0.3202</v>
       </c>
-      <c r="AZ6" s="30">
+      <c r="AZ6" s="31">
         <f t="shared" ref="AZ6:AZ9" si="17">AZ5+AW6</f>
         <v>2721578</v>
       </c>
-      <c r="BA6" s="31">
+      <c r="BA6" s="32">
         <f t="shared" si="9"/>
         <v>18338422</v>
       </c>
@@ -8521,22 +8612,22 @@
       <c r="A7" s="24">
         <v>43307</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="38">
         <f t="shared" si="10"/>
         <v>57445097</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="29">
         <f t="shared" si="0"/>
         <v>10113021</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="29">
         <f t="shared" si="1"/>
         <v>107491382</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="30">
         <v>31391100</v>
       </c>
       <c r="G7">
@@ -8548,15 +8639,15 @@
       <c r="I7" s="3">
         <v>0.2986</v>
       </c>
-      <c r="J7" s="30">
+      <c r="J7" s="31">
         <f>J6+G7</f>
         <v>22841250</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="32">
         <f t="shared" si="2"/>
         <v>8549850</v>
       </c>
-      <c r="L7" s="29">
+      <c r="L7" s="30">
         <v>12562000</v>
       </c>
       <c r="M7" s="1">
@@ -8568,15 +8659,15 @@
       <c r="O7" s="3">
         <v>0.3742</v>
       </c>
-      <c r="P7" s="30">
+      <c r="P7" s="31">
         <f t="shared" si="11"/>
         <v>11494147</v>
       </c>
-      <c r="Q7" s="31">
+      <c r="Q7" s="32">
         <f t="shared" si="3"/>
         <v>1067853</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="30">
         <v>3358700</v>
       </c>
       <c r="S7" s="1">
@@ -8588,15 +8679,15 @@
       <c r="U7" s="3">
         <v>1</v>
       </c>
-      <c r="V7" s="30">
+      <c r="V7" s="31">
         <f t="shared" si="12"/>
         <v>3222384</v>
       </c>
-      <c r="W7" s="31">
+      <c r="W7" s="32">
         <f t="shared" si="4"/>
         <v>136316</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="30">
         <v>5307700</v>
       </c>
       <c r="Y7" s="1">
@@ -8608,15 +8699,15 @@
       <c r="AA7" s="3">
         <v>0.0985</v>
       </c>
-      <c r="AB7" s="30">
+      <c r="AB7" s="31">
         <f t="shared" si="13"/>
         <v>4948698</v>
       </c>
-      <c r="AC7" s="32">
+      <c r="AC7" s="33">
         <f t="shared" si="5"/>
         <v>359002</v>
       </c>
-      <c r="AD7" s="33">
+      <c r="AD7" s="34">
         <v>45620000</v>
       </c>
       <c r="AE7">
@@ -8628,15 +8719,15 @@
       <c r="AG7" s="3">
         <v>0.1866</v>
       </c>
-      <c r="AH7" s="28">
+      <c r="AH7" s="29">
         <f t="shared" si="14"/>
         <v>2365086</v>
       </c>
-      <c r="AI7" s="31">
+      <c r="AI7" s="32">
         <f t="shared" si="6"/>
         <v>43254914</v>
       </c>
-      <c r="AJ7" s="29">
+      <c r="AJ7" s="30">
         <v>44510000</v>
       </c>
       <c r="AK7" s="1">
@@ -8648,15 +8739,15 @@
       <c r="AM7" s="3">
         <v>0.289</v>
       </c>
-      <c r="AN7" s="28">
+      <c r="AN7" s="29">
         <f t="shared" si="15"/>
         <v>7722771</v>
       </c>
-      <c r="AO7" s="31">
+      <c r="AO7" s="32">
         <f t="shared" si="7"/>
         <v>36787229</v>
       </c>
-      <c r="AP7" s="29">
+      <c r="AP7" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ7" s="1">
@@ -8668,15 +8759,15 @@
       <c r="AS7" s="3">
         <v>0.3286</v>
       </c>
-      <c r="AT7" s="30">
+      <c r="AT7" s="31">
         <f t="shared" si="16"/>
         <v>1865199</v>
       </c>
-      <c r="AU7" s="31">
+      <c r="AU7" s="32">
         <f t="shared" si="8"/>
         <v>9374801</v>
       </c>
-      <c r="AV7" s="29">
+      <c r="AV7" s="30">
         <v>21060000</v>
       </c>
       <c r="AW7" s="1">
@@ -8688,11 +8779,11 @@
       <c r="AY7" s="3">
         <v>0.3122</v>
       </c>
-      <c r="AZ7" s="30">
+      <c r="AZ7" s="31">
         <f t="shared" si="17"/>
         <v>2985562</v>
       </c>
-      <c r="BA7" s="31">
+      <c r="BA7" s="32">
         <f t="shared" si="9"/>
         <v>18074438</v>
       </c>
@@ -8701,22 +8792,22 @@
       <c r="A8" s="24">
         <v>43314</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="38">
         <f t="shared" si="10"/>
         <v>59404406</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="29">
         <f t="shared" si="0"/>
         <v>9503211</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="29">
         <f t="shared" si="1"/>
         <v>106141883</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="30">
         <v>31391100</v>
       </c>
       <c r="G8">
@@ -8728,15 +8819,15 @@
       <c r="I8" s="3">
         <v>0.302</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="31">
         <f t="shared" ref="J8:J10" si="18">J7+G8</f>
         <v>23424866</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="32">
         <f t="shared" si="2"/>
         <v>7966234</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="30">
         <v>12562000</v>
       </c>
       <c r="M8" s="1">
@@ -8748,15 +8839,15 @@
       <c r="O8" s="3">
         <v>0.1261</v>
       </c>
-      <c r="P8" s="30">
+      <c r="P8" s="31">
         <f t="shared" si="11"/>
         <v>11498148</v>
       </c>
-      <c r="Q8" s="31">
+      <c r="Q8" s="32">
         <f t="shared" si="3"/>
         <v>1063852</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="30">
         <v>3358700</v>
       </c>
       <c r="S8" s="1">
@@ -8768,15 +8859,15 @@
       <c r="U8" s="3">
         <v>0.992</v>
       </c>
-      <c r="V8" s="30">
+      <c r="V8" s="31">
         <f t="shared" si="12"/>
         <v>3232835</v>
       </c>
-      <c r="W8" s="31">
+      <c r="W8" s="32">
         <f t="shared" si="4"/>
         <v>125865</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="30">
         <v>5307700</v>
       </c>
       <c r="Y8" s="1">
@@ -8788,15 +8879,15 @@
       <c r="AA8" s="3">
         <v>0.2663</v>
       </c>
-      <c r="AB8" s="30">
+      <c r="AB8" s="31">
         <f t="shared" si="13"/>
         <v>4960440</v>
       </c>
-      <c r="AC8" s="32">
+      <c r="AC8" s="33">
         <f t="shared" si="5"/>
         <v>347260</v>
       </c>
-      <c r="AD8" s="33">
+      <c r="AD8" s="34">
         <v>45620000</v>
       </c>
       <c r="AE8">
@@ -8808,15 +8899,15 @@
       <c r="AG8" s="3">
         <v>0.1348</v>
       </c>
-      <c r="AH8" s="28">
+      <c r="AH8" s="29">
         <f t="shared" si="14"/>
         <v>2638355</v>
       </c>
-      <c r="AI8" s="31">
+      <c r="AI8" s="32">
         <f t="shared" si="6"/>
         <v>42981645</v>
       </c>
-      <c r="AJ8" s="29">
+      <c r="AJ8" s="30">
         <v>44510000</v>
       </c>
       <c r="AK8" s="1">
@@ -8828,15 +8919,15 @@
       <c r="AM8" s="3">
         <v>0.2207</v>
       </c>
-      <c r="AN8" s="28">
+      <c r="AN8" s="29">
         <f t="shared" si="15"/>
         <v>8266860</v>
       </c>
-      <c r="AO8" s="31">
+      <c r="AO8" s="32">
         <f t="shared" si="7"/>
         <v>36243140</v>
       </c>
-      <c r="AP8" s="29">
+      <c r="AP8" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ8" s="1">
@@ -8848,15 +8939,15 @@
       <c r="AS8" s="3">
         <v>0.3961</v>
       </c>
-      <c r="AT8" s="30">
+      <c r="AT8" s="31">
         <f t="shared" si="16"/>
         <v>2056264</v>
       </c>
-      <c r="AU8" s="31">
+      <c r="AU8" s="32">
         <f t="shared" si="8"/>
         <v>9183736</v>
       </c>
-      <c r="AV8" s="29">
+      <c r="AV8" s="30">
         <v>21060000</v>
       </c>
       <c r="AW8" s="1">
@@ -8868,11 +8959,11 @@
       <c r="AY8" s="3">
         <v>0.3566</v>
       </c>
-      <c r="AZ8" s="30">
+      <c r="AZ8" s="31">
         <f t="shared" si="17"/>
         <v>3326638</v>
       </c>
-      <c r="BA8" s="31">
+      <c r="BA8" s="32">
         <f t="shared" si="9"/>
         <v>17733362</v>
       </c>
@@ -8881,22 +8972,22 @@
       <c r="A9" s="24">
         <v>43321</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="38">
         <f t="shared" si="10"/>
         <v>61372012</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="29">
         <f t="shared" si="0"/>
         <v>9046443</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="29">
         <f t="shared" si="1"/>
         <v>104631045</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="30">
         <v>31391100</v>
       </c>
       <c r="G9">
@@ -8908,15 +8999,15 @@
       <c r="I9" s="3">
         <v>0.232</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="31">
         <f t="shared" si="18"/>
         <v>23852094</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="32">
         <f t="shared" si="2"/>
         <v>7539006</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="30">
         <v>12562000</v>
       </c>
       <c r="M9" s="1">
@@ -8928,28 +9019,28 @@
       <c r="O9" s="3">
         <v>0.3706</v>
       </c>
-      <c r="P9" s="30">
+      <c r="P9" s="31">
         <f t="shared" si="11"/>
         <v>11520771</v>
       </c>
-      <c r="Q9" s="31">
+      <c r="Q9" s="32">
         <f t="shared" si="3"/>
         <v>1041229</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="30">
         <v>3358700</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="V9" s="30">
+      <c r="V9" s="31">
         <f t="shared" si="12"/>
         <v>3232835</v>
       </c>
-      <c r="W9" s="31">
+      <c r="W9" s="32">
         <f t="shared" si="4"/>
         <v>125865</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="30">
         <v>5307700</v>
       </c>
       <c r="Y9" s="1">
@@ -8961,15 +9052,15 @@
       <c r="AA9" s="3">
         <v>0.0779</v>
       </c>
-      <c r="AB9" s="30">
+      <c r="AB9" s="31">
         <f t="shared" si="13"/>
         <v>4967357</v>
       </c>
-      <c r="AC9" s="32">
+      <c r="AC9" s="33">
         <f t="shared" si="5"/>
         <v>340343</v>
       </c>
-      <c r="AD9" s="33">
+      <c r="AD9" s="34">
         <v>45620000</v>
       </c>
       <c r="AE9">
@@ -8981,15 +9072,15 @@
       <c r="AG9" s="3">
         <v>0.1688</v>
       </c>
-      <c r="AH9" s="28">
+      <c r="AH9" s="29">
         <f t="shared" si="14"/>
         <v>3002313</v>
       </c>
-      <c r="AI9" s="31">
+      <c r="AI9" s="32">
         <f t="shared" si="6"/>
         <v>42617687</v>
       </c>
-      <c r="AJ9" s="29">
+      <c r="AJ9" s="30">
         <v>44510000</v>
       </c>
       <c r="AK9" s="1">
@@ -9001,15 +9092,15 @@
       <c r="AM9" s="3">
         <v>0.2686</v>
       </c>
-      <c r="AN9" s="28">
+      <c r="AN9" s="29">
         <f t="shared" si="15"/>
         <v>8918491</v>
       </c>
-      <c r="AO9" s="31">
+      <c r="AO9" s="32">
         <f t="shared" si="7"/>
         <v>35591509</v>
       </c>
-      <c r="AP9" s="29">
+      <c r="AP9" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ9" s="1">
@@ -9021,15 +9112,15 @@
       <c r="AS9" s="3">
         <v>0.3919</v>
       </c>
-      <c r="AT9" s="30">
+      <c r="AT9" s="31">
         <f t="shared" si="16"/>
         <v>2253176</v>
       </c>
-      <c r="AU9" s="31">
+      <c r="AU9" s="32">
         <f t="shared" si="8"/>
         <v>8986824</v>
       </c>
-      <c r="AV9" s="29">
+      <c r="AV9" s="30">
         <v>21060000</v>
       </c>
       <c r="AW9" s="1">
@@ -9041,11 +9132,11 @@
       <c r="AY9" s="3">
         <v>0.3288</v>
       </c>
-      <c r="AZ9" s="30">
+      <c r="AZ9" s="31">
         <f t="shared" si="17"/>
         <v>3624975</v>
       </c>
-      <c r="BA9" s="31">
+      <c r="BA9" s="32">
         <f t="shared" si="9"/>
         <v>17435025</v>
       </c>
@@ -9054,22 +9145,22 @@
       <c r="A10" s="24">
         <v>43328</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="38">
         <f t="shared" si="10"/>
         <v>63753676</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="29">
         <f t="shared" ref="D10:D12" si="19">+K10+Q10+W10+AC10</f>
         <v>8629431</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="29">
         <f t="shared" ref="E10:E12" si="20">AI10+AO10+AU10+BA10</f>
         <v>102666393</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="30">
         <v>31391100</v>
       </c>
       <c r="G10">
@@ -9081,15 +9172,15 @@
       <c r="I10" s="3">
         <v>0.2743</v>
       </c>
-      <c r="J10" s="30">
+      <c r="J10" s="31">
         <f t="shared" si="18"/>
         <v>24213597</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="32">
         <f t="shared" ref="K10:K12" si="21">F10-J10</f>
         <v>7177503</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="30">
         <v>12562000</v>
       </c>
       <c r="M10" s="1">
@@ -9101,15 +9192,15 @@
       <c r="O10" s="3">
         <v>0.6919</v>
       </c>
-      <c r="P10" s="30">
+      <c r="P10" s="31">
         <f t="shared" si="11"/>
         <v>11555865</v>
       </c>
-      <c r="Q10" s="31">
+      <c r="Q10" s="32">
         <f t="shared" ref="Q10:Q12" si="22">L10-P10</f>
         <v>1006135</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="30">
         <v>3358700</v>
       </c>
       <c r="S10" s="1">
@@ -9121,15 +9212,15 @@
       <c r="U10" s="3">
         <v>1</v>
       </c>
-      <c r="V10" s="30">
+      <c r="V10" s="31">
         <f t="shared" si="12"/>
         <v>3242241</v>
       </c>
-      <c r="W10" s="31">
+      <c r="W10" s="32">
         <f t="shared" ref="W10:W12" si="23">R10-V10</f>
         <v>116459</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="30">
         <v>5307700</v>
       </c>
       <c r="Y10" s="1">
@@ -9141,15 +9232,15 @@
       <c r="AA10" s="3">
         <v>0.2796</v>
       </c>
-      <c r="AB10" s="30">
+      <c r="AB10" s="31">
         <f t="shared" si="13"/>
         <v>4978366</v>
       </c>
-      <c r="AC10" s="32">
+      <c r="AC10" s="33">
         <f t="shared" ref="AC10:AC12" si="24">X10-AB10</f>
         <v>329334</v>
       </c>
-      <c r="AD10" s="33">
+      <c r="AD10" s="34">
         <v>45620000</v>
       </c>
       <c r="AE10">
@@ -9161,15 +9252,15 @@
       <c r="AG10" s="3">
         <v>0.1846</v>
       </c>
-      <c r="AH10" s="28">
+      <c r="AH10" s="29">
         <f t="shared" ref="AH10:AH12" si="25">AH9+AE10</f>
         <v>3489309</v>
       </c>
-      <c r="AI10" s="31">
+      <c r="AI10" s="32">
         <f t="shared" ref="AI10:AI12" si="26">AD10-AH10</f>
         <v>42130691</v>
       </c>
-      <c r="AJ10" s="29">
+      <c r="AJ10" s="30">
         <v>44510000</v>
       </c>
       <c r="AK10" s="1">
@@ -9181,15 +9272,15 @@
       <c r="AM10" s="3">
         <v>0.3325</v>
       </c>
-      <c r="AN10" s="28">
+      <c r="AN10" s="29">
         <f t="shared" ref="AN10:AN12" si="27">AN9+AK10</f>
         <v>9730165</v>
       </c>
-      <c r="AO10" s="31">
+      <c r="AO10" s="32">
         <f t="shared" ref="AO10:AO12" si="28">AJ10-AN10</f>
         <v>34779835</v>
       </c>
-      <c r="AP10" s="29">
+      <c r="AP10" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ10" s="1">
@@ -9201,15 +9292,15 @@
       <c r="AS10" s="3">
         <v>0.5814</v>
       </c>
-      <c r="AT10" s="30">
+      <c r="AT10" s="31">
         <f t="shared" ref="AT10:AT12" si="29">AT9+AQ10</f>
         <v>2538520</v>
       </c>
-      <c r="AU10" s="31">
+      <c r="AU10" s="32">
         <f t="shared" ref="AU10:AU12" si="30">AP10-AT10</f>
         <v>8701480</v>
       </c>
-      <c r="AV10" s="29">
+      <c r="AV10" s="30">
         <v>21060000</v>
       </c>
       <c r="AW10" s="1">
@@ -9221,11 +9312,11 @@
       <c r="AY10" s="3">
         <v>0.3972</v>
       </c>
-      <c r="AZ10" s="30">
+      <c r="AZ10" s="31">
         <f t="shared" ref="AZ10:AZ12" si="31">AZ9+AW10</f>
         <v>4005613</v>
       </c>
-      <c r="BA10" s="31">
+      <c r="BA10" s="32">
         <f t="shared" ref="BA10:BA12" si="32">AV10-AZ10</f>
         <v>17054387</v>
       </c>
@@ -9234,22 +9325,22 @@
       <c r="A11" s="24">
         <v>43335</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="38">
         <f t="shared" si="10"/>
         <v>66637565</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="29">
         <f t="shared" si="19"/>
         <v>8295366</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="29">
         <f t="shared" si="20"/>
         <v>100116569</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="30">
         <v>31391100</v>
       </c>
       <c r="G11">
@@ -9261,15 +9352,15 @@
       <c r="I11" s="3">
         <v>0.2141</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="31">
         <f t="shared" ref="J11:J12" si="33">J10+G11</f>
         <v>24492704</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="32">
         <f t="shared" si="21"/>
         <v>6898396</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="30">
         <v>12562000</v>
       </c>
       <c r="M11" s="1">
@@ -9281,37 +9372,37 @@
       <c r="O11" s="3">
         <v>0.9611</v>
       </c>
-      <c r="P11" s="30">
+      <c r="P11" s="31">
         <f t="shared" ref="P11:P12" si="34">P10+M11</f>
         <v>11610823</v>
       </c>
-      <c r="Q11" s="31">
+      <c r="Q11" s="32">
         <f t="shared" si="22"/>
         <v>951177</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="30">
         <v>3358700</v>
       </c>
-      <c r="V11" s="30">
+      <c r="V11" s="31">
         <f t="shared" ref="V11:V12" si="35">V10+S11</f>
         <v>3242241</v>
       </c>
-      <c r="W11" s="31">
+      <c r="W11" s="32">
         <f t="shared" si="23"/>
         <v>116459</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="30">
         <v>5307700</v>
       </c>
-      <c r="AB11" s="30">
+      <c r="AB11" s="31">
         <f t="shared" ref="AB11:AB12" si="36">AB10+Y11</f>
         <v>4978366</v>
       </c>
-      <c r="AC11" s="32">
+      <c r="AC11" s="33">
         <f t="shared" si="24"/>
         <v>329334</v>
       </c>
-      <c r="AD11" s="33">
+      <c r="AD11" s="34">
         <v>45620000</v>
       </c>
       <c r="AE11">
@@ -9323,15 +9414,15 @@
       <c r="AG11" s="3">
         <v>0.1906</v>
       </c>
-      <c r="AH11" s="28">
+      <c r="AH11" s="29">
         <f t="shared" si="25"/>
         <v>3998689</v>
       </c>
-      <c r="AI11" s="31">
+      <c r="AI11" s="32">
         <f t="shared" si="26"/>
         <v>41621311</v>
       </c>
-      <c r="AJ11" s="29">
+      <c r="AJ11" s="30">
         <v>44510000</v>
       </c>
       <c r="AK11" s="1">
@@ -9343,15 +9434,15 @@
       <c r="AM11" s="3">
         <v>0.4797</v>
       </c>
-      <c r="AN11" s="28">
+      <c r="AN11" s="29">
         <f t="shared" si="27"/>
         <v>10898852</v>
       </c>
-      <c r="AO11" s="31">
+      <c r="AO11" s="32">
         <f t="shared" si="28"/>
         <v>33611148</v>
       </c>
-      <c r="AP11" s="29">
+      <c r="AP11" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ11" s="1">
@@ -9363,15 +9454,15 @@
       <c r="AS11" s="3">
         <v>0.8503</v>
       </c>
-      <c r="AT11" s="30">
+      <c r="AT11" s="31">
         <f t="shared" si="29"/>
         <v>2956772</v>
       </c>
-      <c r="AU11" s="31">
+      <c r="AU11" s="32">
         <f t="shared" si="30"/>
         <v>8283228</v>
       </c>
-      <c r="AV11" s="29">
+      <c r="AV11" s="30">
         <v>21060000</v>
       </c>
       <c r="AW11" s="1">
@@ -9383,11 +9474,11 @@
       <c r="AY11" s="3">
         <v>0.4943</v>
       </c>
-      <c r="AZ11" s="30">
+      <c r="AZ11" s="31">
         <f t="shared" si="31"/>
         <v>4459118</v>
       </c>
-      <c r="BA11" s="31">
+      <c r="BA11" s="32">
         <f t="shared" si="32"/>
         <v>16600882</v>
       </c>
@@ -9396,22 +9487,22 @@
       <c r="A12" s="24">
         <v>43342</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="38">
         <f t="shared" si="10"/>
         <v>70442469</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="29">
         <f t="shared" si="19"/>
         <v>7829372</v>
       </c>
-      <c r="E12" s="28">
+      <c r="E12" s="29">
         <f t="shared" si="20"/>
         <v>96777659</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="30">
         <v>31391100</v>
       </c>
       <c r="G12">
@@ -9423,15 +9514,15 @@
       <c r="I12" s="3">
         <v>0.3276</v>
       </c>
-      <c r="J12" s="30">
+      <c r="J12" s="31">
         <f t="shared" si="33"/>
         <v>24913248</v>
       </c>
-      <c r="K12" s="31">
+      <c r="K12" s="32">
         <f t="shared" si="21"/>
         <v>6477852</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="30">
         <v>12562000</v>
       </c>
       <c r="M12" s="1">
@@ -9443,26 +9534,26 @@
       <c r="O12" s="3">
         <v>0.8423</v>
       </c>
-      <c r="P12" s="30">
+      <c r="P12" s="31">
         <f t="shared" si="34"/>
         <v>11651471</v>
       </c>
-      <c r="Q12" s="31">
+      <c r="Q12" s="32">
         <f t="shared" si="22"/>
         <v>910529</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="30">
         <v>3358700</v>
       </c>
-      <c r="V12" s="30">
+      <c r="V12" s="31">
         <f t="shared" si="35"/>
         <v>3242241</v>
       </c>
-      <c r="W12" s="31">
+      <c r="W12" s="32">
         <f t="shared" si="23"/>
         <v>116459</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="30">
         <v>5307700</v>
       </c>
       <c r="Y12">
@@ -9474,15 +9565,15 @@
       <c r="AA12" s="3">
         <v>0.1449</v>
       </c>
-      <c r="AB12" s="30">
+      <c r="AB12" s="31">
         <f t="shared" si="36"/>
         <v>4983168</v>
       </c>
-      <c r="AC12" s="32">
+      <c r="AC12" s="33">
         <f t="shared" si="24"/>
         <v>324532</v>
       </c>
-      <c r="AD12" s="33">
+      <c r="AD12" s="34">
         <v>45620000</v>
       </c>
       <c r="AE12">
@@ -9494,15 +9585,15 @@
       <c r="AG12" s="3">
         <v>0.2836</v>
       </c>
-      <c r="AH12" s="28">
+      <c r="AH12" s="29">
         <f t="shared" si="25"/>
         <v>4768168</v>
       </c>
-      <c r="AI12" s="31">
+      <c r="AI12" s="32">
         <f t="shared" si="26"/>
         <v>40851832</v>
       </c>
-      <c r="AJ12" s="29">
+      <c r="AJ12" s="30">
         <v>44510000</v>
       </c>
       <c r="AK12" s="1">
@@ -9514,15 +9605,15 @@
       <c r="AM12" s="3">
         <v>0.6819</v>
       </c>
-      <c r="AN12" s="28">
+      <c r="AN12" s="29">
         <f t="shared" si="27"/>
         <v>12560895</v>
       </c>
-      <c r="AO12" s="31">
+      <c r="AO12" s="32">
         <f t="shared" si="28"/>
         <v>31949105</v>
       </c>
-      <c r="AP12" s="29">
+      <c r="AP12" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ12" s="1">
@@ -9534,15 +9625,15 @@
       <c r="AS12" s="3">
         <v>0.9953</v>
       </c>
-      <c r="AT12" s="30">
+      <c r="AT12" s="31">
         <f t="shared" si="29"/>
         <v>3436051</v>
       </c>
-      <c r="AU12" s="31">
+      <c r="AU12" s="32">
         <f t="shared" si="30"/>
         <v>7803949</v>
       </c>
-      <c r="AV12" s="29">
+      <c r="AV12" s="30">
         <v>21060000</v>
       </c>
       <c r="AW12" s="1">
@@ -9554,11 +9645,11 @@
       <c r="AY12" s="3">
         <v>0.4435</v>
       </c>
-      <c r="AZ12" s="30">
+      <c r="AZ12" s="31">
         <f t="shared" si="31"/>
         <v>4887227</v>
       </c>
-      <c r="BA12" s="31">
+      <c r="BA12" s="32">
         <f t="shared" si="32"/>
         <v>16172773</v>
       </c>
@@ -9567,22 +9658,22 @@
       <c r="A13" s="24">
         <v>43349</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="38">
         <f t="shared" ref="C13:C15" si="37">J13+P13+V13+AB13+AH13+AN13+AT13+AZ13</f>
         <v>74728966</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="29">
         <f t="shared" ref="D13:D15" si="38">+K13+Q13+W13+AC13</f>
         <v>7367193</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="29">
         <f t="shared" ref="E13:E15" si="39">AI13+AO13+AU13+BA13</f>
         <v>92953341</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="30">
         <v>31391100</v>
       </c>
       <c r="G13">
@@ -9594,15 +9685,15 @@
       <c r="I13" s="3">
         <v>0.3122</v>
       </c>
-      <c r="J13" s="30">
+      <c r="J13" s="31">
         <f t="shared" ref="J13:J15" si="40">J12+G13</f>
         <v>25258648</v>
       </c>
-      <c r="K13" s="31">
+      <c r="K13" s="32">
         <f t="shared" ref="K13:K15" si="41">F13-J13</f>
         <v>6132452</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="30">
         <v>12562000</v>
       </c>
       <c r="M13" s="1">
@@ -9614,26 +9705,26 @@
       <c r="O13" s="3">
         <v>1</v>
       </c>
-      <c r="P13" s="30">
+      <c r="P13" s="31">
         <f t="shared" ref="P13:P15" si="42">P12+M13</f>
         <v>11759406</v>
       </c>
-      <c r="Q13" s="31">
+      <c r="Q13" s="32">
         <f t="shared" ref="Q13:Q15" si="43">L13-P13</f>
         <v>802594</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="30">
         <v>3358700</v>
       </c>
-      <c r="V13" s="30">
+      <c r="V13" s="31">
         <f t="shared" ref="V13:V15" si="44">V12+S13</f>
         <v>3242241</v>
       </c>
-      <c r="W13" s="31">
+      <c r="W13" s="32">
         <f t="shared" ref="W13:W15" si="45">R13-V13</f>
         <v>116459</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="30">
         <v>5307700</v>
       </c>
       <c r="Y13">
@@ -9645,15 +9736,15 @@
       <c r="AA13" s="3">
         <v>0.0975</v>
       </c>
-      <c r="AB13" s="30">
+      <c r="AB13" s="31">
         <f t="shared" ref="AB13:AB15" si="46">AB12+Y13</f>
         <v>4992012</v>
       </c>
-      <c r="AC13" s="32">
+      <c r="AC13" s="33">
         <f t="shared" ref="AC13:AC15" si="47">X13-AB13</f>
         <v>315688</v>
       </c>
-      <c r="AD13" s="33">
+      <c r="AD13" s="34">
         <v>45620000</v>
       </c>
       <c r="AE13">
@@ -9665,15 +9756,15 @@
       <c r="AG13" s="3">
         <v>0.3357</v>
       </c>
-      <c r="AH13" s="28">
+      <c r="AH13" s="29">
         <f t="shared" ref="AH13:AH15" si="48">AH12+AE13</f>
         <v>5722268</v>
       </c>
-      <c r="AI13" s="31">
+      <c r="AI13" s="32">
         <f t="shared" ref="AI13:AI15" si="49">AD13-AH13</f>
         <v>39897732</v>
       </c>
-      <c r="AJ13" s="29">
+      <c r="AJ13" s="30">
         <v>44510000</v>
       </c>
       <c r="AK13" s="1">
@@ -9685,15 +9776,15 @@
       <c r="AM13" s="3">
         <v>0.7951</v>
       </c>
-      <c r="AN13" s="28">
+      <c r="AN13" s="29">
         <f t="shared" ref="AN13:AN15" si="50">AN12+AK13</f>
         <v>14453286</v>
       </c>
-      <c r="AO13" s="31">
+      <c r="AO13" s="32">
         <f t="shared" ref="AO13:AO15" si="51">AJ13-AN13</f>
         <v>30056714</v>
       </c>
-      <c r="AP13" s="29">
+      <c r="AP13" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ13" s="1">
@@ -9705,15 +9796,15 @@
       <c r="AS13" s="3">
         <v>1</v>
       </c>
-      <c r="AT13" s="30">
+      <c r="AT13" s="31">
         <f t="shared" ref="AT13:AT15" si="52">AT12+AQ13</f>
         <v>3921243</v>
       </c>
-      <c r="AU13" s="31">
+      <c r="AU13" s="32">
         <f t="shared" ref="AU13:AU15" si="53">AP13-AT13</f>
         <v>7318757</v>
       </c>
-      <c r="AV13" s="29">
+      <c r="AV13" s="30">
         <v>21060000</v>
       </c>
       <c r="AW13" s="1">
@@ -9725,11 +9816,11 @@
       <c r="AY13" s="3">
         <v>0.5424</v>
       </c>
-      <c r="AZ13" s="30">
+      <c r="AZ13" s="31">
         <f t="shared" ref="AZ13:AZ15" si="54">AZ12+AW13</f>
         <v>5379862</v>
       </c>
-      <c r="BA13" s="31">
+      <c r="BA13" s="32">
         <f t="shared" ref="BA13:BA15" si="55">AV13-AZ13</f>
         <v>15680138</v>
       </c>
@@ -9738,22 +9829,22 @@
       <c r="A14" s="24">
         <v>43356</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="38">
         <f t="shared" si="37"/>
         <v>78657219</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="29">
         <f t="shared" si="38"/>
         <v>6986970</v>
       </c>
-      <c r="E14" s="28">
+      <c r="E14" s="29">
         <f t="shared" si="39"/>
         <v>89405311</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="30">
         <v>31391100</v>
       </c>
       <c r="G14">
@@ -9765,15 +9856,15 @@
       <c r="I14" s="3">
         <v>0.2034</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="31">
         <f t="shared" si="40"/>
         <v>25488580</v>
       </c>
-      <c r="K14" s="31">
+      <c r="K14" s="32">
         <f t="shared" si="41"/>
         <v>5902520</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="30">
         <v>12562000</v>
       </c>
       <c r="M14" s="1">
@@ -9785,15 +9876,15 @@
       <c r="O14" s="3">
         <v>0.9554</v>
       </c>
-      <c r="P14" s="30">
+      <c r="P14" s="31">
         <f t="shared" si="42"/>
         <v>11861896</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q14" s="32">
         <f t="shared" si="43"/>
         <v>700104</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="30">
         <v>3358700</v>
       </c>
       <c r="S14">
@@ -9805,15 +9896,15 @@
       <c r="U14" s="3">
         <v>1</v>
       </c>
-      <c r="V14" s="30">
+      <c r="V14" s="31">
         <f t="shared" si="44"/>
         <v>3252241</v>
       </c>
-      <c r="W14" s="31">
+      <c r="W14" s="32">
         <f t="shared" si="45"/>
         <v>106459</v>
       </c>
-      <c r="X14" s="29">
+      <c r="X14" s="30">
         <v>5307700</v>
       </c>
       <c r="Y14">
@@ -9825,15 +9916,15 @@
       <c r="AA14" s="3">
         <v>0.5815</v>
       </c>
-      <c r="AB14" s="30">
+      <c r="AB14" s="31">
         <f t="shared" si="46"/>
         <v>5029813</v>
       </c>
-      <c r="AC14" s="32">
+      <c r="AC14" s="33">
         <f t="shared" si="47"/>
         <v>277887</v>
       </c>
-      <c r="AD14" s="33">
+      <c r="AD14" s="34">
         <v>45620000</v>
       </c>
       <c r="AE14">
@@ -9845,15 +9936,15 @@
       <c r="AG14" s="3">
         <v>0.278</v>
       </c>
-      <c r="AH14" s="28">
+      <c r="AH14" s="29">
         <f t="shared" si="48"/>
         <v>6518385</v>
       </c>
-      <c r="AI14" s="31">
+      <c r="AI14" s="32">
         <f t="shared" si="49"/>
         <v>39101615</v>
       </c>
-      <c r="AJ14" s="29">
+      <c r="AJ14" s="30">
         <v>44510000</v>
       </c>
       <c r="AK14" s="1">
@@ -9865,15 +9956,15 @@
       <c r="AM14" s="3">
         <v>0.7506</v>
       </c>
-      <c r="AN14" s="28">
+      <c r="AN14" s="29">
         <f t="shared" si="50"/>
         <v>16239340</v>
       </c>
-      <c r="AO14" s="31">
+      <c r="AO14" s="32">
         <f t="shared" si="51"/>
         <v>28270660</v>
       </c>
-      <c r="AP14" s="29">
+      <c r="AP14" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ14" s="1">
@@ -9885,15 +9976,15 @@
       <c r="AS14" s="3">
         <v>0.991</v>
       </c>
-      <c r="AT14" s="30">
+      <c r="AT14" s="31">
         <f t="shared" si="52"/>
         <v>4392767</v>
       </c>
-      <c r="AU14" s="31">
+      <c r="AU14" s="32">
         <f t="shared" si="53"/>
         <v>6847233</v>
       </c>
-      <c r="AV14" s="29">
+      <c r="AV14" s="30">
         <v>21060000</v>
       </c>
       <c r="AW14" s="1">
@@ -9905,11 +9996,11 @@
       <c r="AY14" s="3">
         <v>0.5356</v>
       </c>
-      <c r="AZ14" s="30">
+      <c r="AZ14" s="31">
         <f t="shared" si="54"/>
         <v>5874197</v>
       </c>
-      <c r="BA14" s="31">
+      <c r="BA14" s="32">
         <f t="shared" si="55"/>
         <v>15185803</v>
       </c>
@@ -9918,22 +10009,22 @@
       <c r="A15" s="24">
         <v>43363</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="38">
         <f t="shared" si="37"/>
         <v>82430436</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="29">
         <f t="shared" si="38"/>
         <v>6411211</v>
       </c>
-      <c r="E15" s="28">
+      <c r="E15" s="29">
         <f t="shared" si="39"/>
         <v>86207853</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="30">
         <v>31391100</v>
       </c>
       <c r="G15">
@@ -9945,15 +10036,15 @@
       <c r="I15" s="3">
         <v>0.2019</v>
       </c>
-      <c r="J15" s="30">
+      <c r="J15" s="31">
         <f t="shared" si="40"/>
         <v>25723328</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="32">
         <f t="shared" si="41"/>
         <v>5667772</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="30">
         <v>12562000</v>
       </c>
       <c r="M15" s="1">
@@ -9965,15 +10056,15 @@
       <c r="O15" s="3">
         <v>0.9829</v>
       </c>
-      <c r="P15" s="30">
+      <c r="P15" s="31">
         <f t="shared" si="42"/>
         <v>12064267</v>
       </c>
-      <c r="Q15" s="31">
+      <c r="Q15" s="32">
         <f t="shared" si="43"/>
         <v>497733</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="30">
         <v>3358700</v>
       </c>
       <c r="S15">
@@ -9985,15 +10076,15 @@
       <c r="U15" s="3">
         <v>1</v>
       </c>
-      <c r="V15" s="30">
+      <c r="V15" s="31">
         <f t="shared" si="44"/>
         <v>3300610</v>
       </c>
-      <c r="W15" s="31">
+      <c r="W15" s="32">
         <f t="shared" si="45"/>
         <v>58090</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="30">
         <v>5307700</v>
       </c>
       <c r="Y15">
@@ -10005,15 +10096,15 @@
       <c r="AA15" s="3">
         <v>0.5273</v>
       </c>
-      <c r="AB15" s="30">
+      <c r="AB15" s="31">
         <f t="shared" si="46"/>
         <v>5120084</v>
       </c>
-      <c r="AC15" s="32">
+      <c r="AC15" s="33">
         <f t="shared" si="47"/>
         <v>187616</v>
       </c>
-      <c r="AD15" s="33">
+      <c r="AD15" s="34">
         <v>45620000</v>
       </c>
       <c r="AE15">
@@ -10025,15 +10116,15 @@
       <c r="AG15" s="3">
         <v>0.1918</v>
       </c>
-      <c r="AH15" s="28">
+      <c r="AH15" s="29">
         <f t="shared" si="48"/>
         <v>7057066</v>
       </c>
-      <c r="AI15" s="31">
+      <c r="AI15" s="32">
         <f t="shared" si="49"/>
         <v>38562934</v>
       </c>
-      <c r="AJ15" s="29">
+      <c r="AJ15" s="30">
         <v>44510000</v>
       </c>
       <c r="AK15" s="1">
@@ -10045,15 +10136,15 @@
       <c r="AM15" s="3">
         <v>0.7728</v>
       </c>
-      <c r="AN15" s="28">
+      <c r="AN15" s="29">
         <f t="shared" si="50"/>
         <v>18002784</v>
       </c>
-      <c r="AO15" s="31">
+      <c r="AO15" s="32">
         <f t="shared" si="51"/>
         <v>26507216</v>
       </c>
-      <c r="AP15" s="29">
+      <c r="AP15" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ15" s="1">
@@ -10065,15 +10156,15 @@
       <c r="AS15" s="3">
         <v>0.9848</v>
       </c>
-      <c r="AT15" s="30">
+      <c r="AT15" s="31">
         <f t="shared" si="52"/>
         <v>4834091</v>
       </c>
-      <c r="AU15" s="31">
+      <c r="AU15" s="32">
         <f t="shared" si="53"/>
         <v>6405909</v>
       </c>
-      <c r="AV15" s="29">
+      <c r="AV15" s="30">
         <v>21060000</v>
       </c>
       <c r="AW15" s="1">
@@ -10085,11 +10176,11 @@
       <c r="AY15" s="3">
         <v>0.5532</v>
       </c>
-      <c r="AZ15" s="30">
+      <c r="AZ15" s="31">
         <f t="shared" si="54"/>
         <v>6328206</v>
       </c>
-      <c r="BA15" s="31">
+      <c r="BA15" s="32">
         <f t="shared" si="55"/>
         <v>14731794</v>
       </c>
@@ -10098,22 +10189,22 @@
       <c r="A16" s="24">
         <v>43370</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="38">
         <f t="shared" ref="C16:C17" si="56">J16+P16+V16+AB16+AH16+AN16+AT16+AZ16</f>
         <v>85909713</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="29">
         <f t="shared" ref="D16:D17" si="57">+K16+Q16+W16+AC16</f>
         <v>6081767</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="29">
         <f t="shared" ref="E16:E17" si="58">AI16+AO16+AU16+BA16</f>
         <v>83058020</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="30">
         <v>31391100</v>
       </c>
       <c r="G16">
@@ -10125,15 +10216,15 @@
       <c r="I16" s="3">
         <v>0.0943</v>
       </c>
-      <c r="J16" s="30">
+      <c r="J16" s="31">
         <f t="shared" ref="J16:J17" si="59">J15+G16</f>
         <v>25810338</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="32">
         <f t="shared" ref="K16:K17" si="60">F16-J16</f>
         <v>5580762</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="30">
         <v>12562000</v>
       </c>
       <c r="M16" s="1">
@@ -10145,26 +10236,26 @@
       <c r="O16" s="3">
         <v>0.9912</v>
       </c>
-      <c r="P16" s="30">
+      <c r="P16" s="31">
         <f t="shared" ref="P16:P17" si="61">P15+M16</f>
         <v>12301128</v>
       </c>
-      <c r="Q16" s="31">
+      <c r="Q16" s="32">
         <f t="shared" ref="Q16:Q17" si="62">L16-P16</f>
         <v>260872</v>
       </c>
-      <c r="R16" s="29">
+      <c r="R16" s="30">
         <v>3358700</v>
       </c>
-      <c r="V16" s="30">
+      <c r="V16" s="31">
         <f t="shared" ref="V16:V17" si="63">V15+S16</f>
         <v>3300610</v>
       </c>
-      <c r="W16" s="31">
+      <c r="W16" s="32">
         <f t="shared" ref="W16:W17" si="64">R16-V16</f>
         <v>58090</v>
       </c>
-      <c r="X16" s="29">
+      <c r="X16" s="30">
         <v>5307700</v>
       </c>
       <c r="Y16">
@@ -10176,15 +10267,15 @@
       <c r="AA16" s="3">
         <v>0.1673</v>
       </c>
-      <c r="AB16" s="30">
+      <c r="AB16" s="31">
         <f t="shared" ref="AB16:AB17" si="65">AB15+Y16</f>
         <v>5125657</v>
       </c>
-      <c r="AC16" s="32">
+      <c r="AC16" s="33">
         <f t="shared" ref="AC16:AC17" si="66">X16-AB16</f>
         <v>182043</v>
       </c>
-      <c r="AD16" s="33">
+      <c r="AD16" s="34">
         <v>45620000</v>
       </c>
       <c r="AE16">
@@ -10196,15 +10287,15 @@
       <c r="AG16" s="3">
         <v>0.159</v>
       </c>
-      <c r="AH16" s="28">
+      <c r="AH16" s="29">
         <f t="shared" ref="AH16:AH17" si="67">AH15+AE16</f>
         <v>7545525</v>
       </c>
-      <c r="AI16" s="31">
+      <c r="AI16" s="32">
         <f t="shared" ref="AI16:AI17" si="68">AD16-AH16</f>
         <v>38074475</v>
       </c>
-      <c r="AJ16" s="29">
+      <c r="AJ16" s="30">
         <v>44510000</v>
       </c>
       <c r="AK16" s="1">
@@ -10216,15 +10307,15 @@
       <c r="AM16" s="3">
         <v>0.7171</v>
       </c>
-      <c r="AN16" s="28">
+      <c r="AN16" s="29">
         <f t="shared" ref="AN16:AN17" si="69">AN15+AK16</f>
         <v>19607929</v>
       </c>
-      <c r="AO16" s="31">
-        <f t="shared" ref="AO16:AO21" si="70">AJ16-AN16</f>
+      <c r="AO16" s="32">
+        <f t="shared" ref="AO16:AO39" si="70">AJ16-AN16</f>
         <v>24902071</v>
       </c>
-      <c r="AP16" s="29">
+      <c r="AP16" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ16" s="1">
@@ -10236,15 +10327,15 @@
       <c r="AS16" s="3">
         <v>0.9955</v>
       </c>
-      <c r="AT16" s="30">
+      <c r="AT16" s="31">
         <f t="shared" ref="AT16:AT17" si="71">AT15+AQ16</f>
         <v>5315485</v>
       </c>
-      <c r="AU16" s="31">
+      <c r="AU16" s="32">
         <f t="shared" ref="AU16:AU17" si="72">AP16-AT16</f>
         <v>5924515</v>
       </c>
-      <c r="AV16" s="29">
+      <c r="AV16" s="30">
         <v>21060000</v>
       </c>
       <c r="AW16" s="1">
@@ -10256,11 +10347,11 @@
       <c r="AY16" s="3">
         <v>0.6007</v>
       </c>
-      <c r="AZ16" s="30">
+      <c r="AZ16" s="31">
         <f t="shared" ref="AZ16:AZ17" si="73">AZ15+AW16</f>
         <v>6903041</v>
       </c>
-      <c r="BA16" s="31">
+      <c r="BA16" s="32">
         <f t="shared" ref="BA16:BA17" si="74">AV16-AZ16</f>
         <v>14156959</v>
       </c>
@@ -10269,22 +10360,22 @@
       <c r="A17" s="24">
         <v>43384</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="38">
         <f t="shared" si="56"/>
         <v>89527380</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="29">
         <f t="shared" si="57"/>
         <v>5714609</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="29">
         <f t="shared" si="58"/>
         <v>79807511</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="30">
         <v>31391100</v>
       </c>
       <c r="G17">
@@ -10296,15 +10387,15 @@
       <c r="I17" s="3">
         <v>0.1718</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="31">
         <f t="shared" si="59"/>
         <v>25950847</v>
       </c>
-      <c r="K17" s="31">
+      <c r="K17" s="32">
         <f t="shared" si="60"/>
         <v>5440253</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="30">
         <v>12562000</v>
       </c>
       <c r="M17" s="1">
@@ -10316,15 +10407,15 @@
       <c r="O17" s="3">
         <v>0.9999</v>
       </c>
-      <c r="P17" s="30">
+      <c r="P17" s="31">
         <f t="shared" si="61"/>
         <v>12416068</v>
       </c>
-      <c r="Q17" s="31">
+      <c r="Q17" s="32">
         <f t="shared" si="62"/>
         <v>145932</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="30">
         <v>3358700</v>
       </c>
       <c r="S17">
@@ -10336,35 +10427,35 @@
       <c r="U17" s="3">
         <v>1</v>
       </c>
-      <c r="V17" s="30">
+      <c r="V17" s="31">
         <f t="shared" si="63"/>
         <v>3316390</v>
       </c>
-      <c r="W17" s="31">
+      <c r="W17" s="32">
         <f t="shared" si="64"/>
         <v>42310</v>
       </c>
-      <c r="X17" s="29">
+      <c r="X17" s="30">
         <v>5307700</v>
       </c>
-      <c r="Y17" s="49">
+      <c r="Y17" s="59">
         <v>95929</v>
       </c>
-      <c r="Z17" s="49">
+      <c r="Z17" s="59">
         <v>1507</v>
       </c>
       <c r="AA17" s="3">
         <v>0.6744</v>
       </c>
-      <c r="AB17" s="30">
+      <c r="AB17" s="31">
         <f t="shared" si="65"/>
         <v>5221586</v>
       </c>
-      <c r="AC17" s="32">
+      <c r="AC17" s="33">
         <f t="shared" si="66"/>
         <v>86114</v>
       </c>
-      <c r="AD17" s="33">
+      <c r="AD17" s="34">
         <v>45620000</v>
       </c>
       <c r="AE17">
@@ -10376,15 +10467,15 @@
       <c r="AG17" s="3">
         <v>0.1622</v>
       </c>
-      <c r="AH17" s="28">
+      <c r="AH17" s="29">
         <f t="shared" si="67"/>
         <v>8061861</v>
       </c>
-      <c r="AI17" s="31">
+      <c r="AI17" s="32">
         <f t="shared" si="68"/>
         <v>37558139</v>
       </c>
-      <c r="AJ17" s="29">
+      <c r="AJ17" s="30">
         <v>44510000</v>
       </c>
       <c r="AK17" s="1">
@@ -10396,15 +10487,15 @@
       <c r="AM17" s="3">
         <v>0.7406</v>
       </c>
-      <c r="AN17" s="28">
+      <c r="AN17" s="29">
         <f t="shared" si="69"/>
         <v>21374309</v>
       </c>
-      <c r="AO17" s="31">
+      <c r="AO17" s="32">
         <f t="shared" si="70"/>
         <v>23135691</v>
       </c>
-      <c r="AP17" s="29">
+      <c r="AP17" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ17" s="1">
@@ -10416,15 +10507,15 @@
       <c r="AS17" s="3">
         <v>0.987</v>
       </c>
-      <c r="AT17" s="30">
+      <c r="AT17" s="31">
         <f t="shared" si="71"/>
         <v>5779029</v>
       </c>
-      <c r="AU17" s="31">
+      <c r="AU17" s="32">
         <f t="shared" si="72"/>
         <v>5460971</v>
       </c>
-      <c r="AV17" s="29">
+      <c r="AV17" s="30">
         <v>21060000</v>
       </c>
       <c r="AW17" s="1">
@@ -10436,11 +10527,11 @@
       <c r="AY17" s="3">
         <v>0.5994</v>
       </c>
-      <c r="AZ17" s="30">
+      <c r="AZ17" s="31">
         <f t="shared" si="73"/>
         <v>7407290</v>
       </c>
-      <c r="BA17" s="31">
+      <c r="BA17" s="32">
         <f t="shared" si="74"/>
         <v>13652710</v>
       </c>
@@ -10449,22 +10540,22 @@
       <c r="A18" s="24">
         <v>43391</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="38">
         <f t="shared" ref="C18" si="75">J18+P18+V18+AB18+AH18+AN18+AT18+AZ18</f>
         <v>93951546</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="29">
         <f t="shared" ref="D18" si="76">+K18+Q18+W18+AC18</f>
         <v>4890568</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="29">
         <f t="shared" ref="E18" si="77">AI18+AO18+AU18+BA18</f>
         <v>76207386</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="30">
         <v>31391100</v>
       </c>
       <c r="G18">
@@ -10476,15 +10567,15 @@
       <c r="I18" s="3">
         <v>0.4741</v>
       </c>
-      <c r="J18" s="30">
+      <c r="J18" s="31">
         <f t="shared" ref="J18" si="78">J17+G18</f>
         <v>26609466</v>
       </c>
-      <c r="K18" s="31">
+      <c r="K18" s="32">
         <f t="shared" ref="K18" si="79">F18-J18</f>
         <v>4781634</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="30">
         <v>12562000</v>
       </c>
       <c r="M18" s="1">
@@ -10496,15 +10587,15 @@
       <c r="O18" s="3">
         <v>0.9999</v>
       </c>
-      <c r="P18" s="30">
+      <c r="P18" s="31">
         <f t="shared" ref="P18:P19" si="80">P17+M18</f>
         <v>12519452</v>
       </c>
-      <c r="Q18" s="31">
-        <f t="shared" ref="Q18:Q20" si="81">L18-P18</f>
+      <c r="Q18" s="32">
+        <f t="shared" ref="Q18:Q23" si="81">L18-P18</f>
         <v>42548</v>
       </c>
-      <c r="R18" s="29">
+      <c r="R18" s="30">
         <v>3358700</v>
       </c>
       <c r="S18">
@@ -10516,35 +10607,35 @@
       <c r="U18" s="3">
         <v>1</v>
       </c>
-      <c r="V18" s="30">
+      <c r="V18" s="31">
         <f t="shared" ref="V18:V19" si="82">V17+S18</f>
         <v>3341390</v>
       </c>
-      <c r="W18" s="31">
+      <c r="W18" s="32">
         <f t="shared" ref="W18:W19" si="83">R18-V18</f>
         <v>17310</v>
       </c>
-      <c r="X18" s="29">
+      <c r="X18" s="30">
         <v>5307700</v>
       </c>
-      <c r="Y18" s="49">
+      <c r="Y18" s="59">
         <v>37038</v>
       </c>
-      <c r="Z18" s="49">
+      <c r="Z18" s="59">
         <v>1422</v>
       </c>
       <c r="AA18" s="3">
         <v>1</v>
       </c>
-      <c r="AB18" s="30">
+      <c r="AB18" s="31">
         <f t="shared" ref="AB18:AB19" si="84">AB17+Y18</f>
         <v>5258624</v>
       </c>
-      <c r="AC18" s="32">
+      <c r="AC18" s="33">
         <f t="shared" ref="AC18:AC19" si="85">X18-AB18</f>
         <v>49076</v>
       </c>
-      <c r="AD18" s="33">
+      <c r="AD18" s="34">
         <v>45620000</v>
       </c>
       <c r="AE18">
@@ -10556,15 +10647,15 @@
       <c r="AG18" s="3">
         <v>0.2076</v>
       </c>
-      <c r="AH18" s="28">
+      <c r="AH18" s="29">
         <f t="shared" ref="AH18:AH19" si="86">AH17+AE18</f>
         <v>8606204</v>
       </c>
-      <c r="AI18" s="31">
-        <f t="shared" ref="AI18:AI21" si="87">AD18-AH18</f>
+      <c r="AI18" s="32">
+        <f t="shared" ref="AI18:AI39" si="87">AD18-AH18</f>
         <v>37013796</v>
       </c>
-      <c r="AJ18" s="29">
+      <c r="AJ18" s="30">
         <v>44510000</v>
       </c>
       <c r="AK18" s="1">
@@ -10576,15 +10667,15 @@
       <c r="AM18" s="3">
         <v>0.8126</v>
       </c>
-      <c r="AN18" s="28">
+      <c r="AN18" s="29">
         <f t="shared" ref="AN18:AN19" si="88">AN17+AK18</f>
         <v>23316811</v>
       </c>
-      <c r="AO18" s="31">
+      <c r="AO18" s="32">
         <f t="shared" si="70"/>
         <v>21193189</v>
       </c>
-      <c r="AP18" s="29">
+      <c r="AP18" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ18" s="1">
@@ -10596,15 +10687,15 @@
       <c r="AS18" s="3">
         <v>1</v>
       </c>
-      <c r="AT18" s="30">
+      <c r="AT18" s="31">
         <f t="shared" ref="AT18:AT19" si="89">AT17+AQ18</f>
         <v>6242702</v>
       </c>
-      <c r="AU18" s="31">
-        <f t="shared" ref="AU18:AU21" si="90">AP18-AT18</f>
+      <c r="AU18" s="32">
+        <f t="shared" ref="AU18:AU39" si="90">AP18-AT18</f>
         <v>4997298</v>
       </c>
-      <c r="AV18" s="29">
+      <c r="AV18" s="30">
         <v>21060000</v>
       </c>
       <c r="AW18" s="1">
@@ -10616,12 +10707,12 @@
       <c r="AY18" s="3">
         <v>0.6828</v>
       </c>
-      <c r="AZ18" s="30">
+      <c r="AZ18" s="31">
         <f t="shared" ref="AZ18:AZ19" si="91">AZ17+AW18</f>
         <v>8056897</v>
       </c>
-      <c r="BA18" s="31">
-        <f t="shared" ref="BA18:BA21" si="92">AV18-AZ18</f>
+      <c r="BA18" s="32">
+        <f t="shared" ref="BA18:BA39" si="92">AV18-AZ18</f>
         <v>13003103</v>
       </c>
     </row>
@@ -10629,22 +10720,22 @@
       <c r="A19" s="24">
         <v>43398</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="37">
-        <f t="shared" ref="C19" si="93">J19+P19+V19+AB19+AH19+AN19+AT19+AZ19</f>
+      <c r="C19" s="38">
+        <f t="shared" ref="C19:C39" si="93">J19+P19+V19+AB19+AH19+AN19+AT19+AZ19</f>
         <v>99564940</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="29">
         <f t="shared" ref="D19" si="94">+K19+Q19+W19+AC19</f>
         <v>4236089</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="29">
         <f t="shared" ref="E19" si="95">AI19+AO19+AU19+BA19</f>
         <v>71248472</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="30">
         <v>31391101</v>
       </c>
       <c r="G19">
@@ -10656,15 +10747,15 @@
       <c r="I19" s="3">
         <v>0.5068</v>
       </c>
-      <c r="J19" s="30">
+      <c r="J19" s="31">
         <f t="shared" ref="J19" si="96">J18+G19</f>
         <v>27182342</v>
       </c>
-      <c r="K19" s="31">
+      <c r="K19" s="32">
         <f t="shared" ref="K19" si="97">F19-J19</f>
         <v>4208759</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="30">
         <v>12562000</v>
       </c>
       <c r="M19" s="1">
@@ -10676,26 +10767,26 @@
       <c r="O19" s="3">
         <v>1</v>
       </c>
-      <c r="P19" s="30">
+      <c r="P19" s="31">
         <f t="shared" si="80"/>
         <v>12554746</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q19" s="32">
         <f t="shared" si="81"/>
         <v>7254</v>
       </c>
-      <c r="R19" s="29">
+      <c r="R19" s="30">
         <v>3358700</v>
       </c>
-      <c r="V19" s="30">
+      <c r="V19" s="31">
         <f t="shared" si="82"/>
         <v>3341390</v>
       </c>
-      <c r="W19" s="31">
+      <c r="W19" s="32">
         <f t="shared" si="83"/>
         <v>17310</v>
       </c>
-      <c r="X19" s="29">
+      <c r="X19" s="30">
         <v>5307700</v>
       </c>
       <c r="Y19">
@@ -10707,15 +10798,15 @@
       <c r="AA19" s="3">
         <v>1</v>
       </c>
-      <c r="AB19" s="30">
+      <c r="AB19" s="31">
         <f t="shared" si="84"/>
         <v>5304934</v>
       </c>
-      <c r="AC19" s="32">
+      <c r="AC19" s="33">
         <f t="shared" si="85"/>
         <v>2766</v>
       </c>
-      <c r="AD19" s="33">
+      <c r="AD19" s="34">
         <v>45620000</v>
       </c>
       <c r="AE19">
@@ -10727,15 +10818,15 @@
       <c r="AG19" s="3">
         <v>0.3895</v>
       </c>
-      <c r="AH19" s="28">
+      <c r="AH19" s="29">
         <f t="shared" si="86"/>
         <v>9725558</v>
       </c>
-      <c r="AI19" s="31">
+      <c r="AI19" s="32">
         <f t="shared" si="87"/>
         <v>35894442</v>
       </c>
-      <c r="AJ19" s="29">
+      <c r="AJ19" s="30">
         <v>44510000</v>
       </c>
       <c r="AK19" s="1">
@@ -10747,15 +10838,15 @@
       <c r="AM19" s="3">
         <v>0.9834</v>
       </c>
-      <c r="AN19" s="28">
+      <c r="AN19" s="29">
         <f t="shared" si="88"/>
         <v>25740892</v>
       </c>
-      <c r="AO19" s="31">
+      <c r="AO19" s="32">
         <f t="shared" si="70"/>
         <v>18769108</v>
       </c>
-      <c r="AP19" s="29">
+      <c r="AP19" s="30">
         <v>11240000</v>
       </c>
       <c r="AQ19" s="1">
@@ -10767,15 +10858,15 @@
       <c r="AS19" s="3">
         <v>1</v>
       </c>
-      <c r="AT19" s="30">
+      <c r="AT19" s="31">
         <f t="shared" si="89"/>
         <v>6737400</v>
       </c>
-      <c r="AU19" s="31">
+      <c r="AU19" s="32">
         <f t="shared" si="90"/>
         <v>4502600</v>
       </c>
-      <c r="AV19" s="29">
+      <c r="AV19" s="30">
         <v>21060000</v>
       </c>
       <c r="AW19" s="1">
@@ -10787,11 +10878,11 @@
       <c r="AY19" s="3">
         <v>0.9656</v>
       </c>
-      <c r="AZ19" s="30">
+      <c r="AZ19" s="31">
         <f t="shared" si="91"/>
         <v>8977678</v>
       </c>
-      <c r="BA19" s="31">
+      <c r="BA19" s="32">
         <f t="shared" si="92"/>
         <v>12082322</v>
       </c>
@@ -10800,22 +10891,22 @@
       <c r="A20" s="24">
         <v>43608</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="37">
-        <f>J20+P20+V20+AB20+AH20+AN20+AT20+AZ20</f>
+      <c r="C20" s="38">
+        <f t="shared" si="93"/>
         <v>3619329</v>
       </c>
-      <c r="D20" s="28">
-        <f t="shared" ref="D20:D21" si="98">+K20+Q20+W20+AC20</f>
+      <c r="D20" s="29">
+        <f t="shared" ref="D20:D39" si="98">+K20+Q20+W20+AC20</f>
         <v>599417</v>
       </c>
-      <c r="E20" s="28">
-        <f t="shared" ref="E20:E21" si="99">AI20+AO20+AU20+BA20</f>
+      <c r="E20" s="29">
+        <f t="shared" ref="E20:E39" si="99">AI20+AO20+AU20+BA20</f>
         <v>71248472</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="30">
         <f>$K$19</f>
         <v>4208759</v>
       </c>
@@ -10828,15 +10919,15 @@
       <c r="I20" s="3">
         <v>0.9063</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="31">
         <f>G20</f>
         <v>3609342</v>
       </c>
-      <c r="K20" s="31">
-        <f t="shared" ref="K20:K21" si="100">F20-J20</f>
+      <c r="K20" s="32">
+        <f t="shared" ref="K20:K39" si="100">F20-J20</f>
         <v>599417</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="30">
         <v>9987</v>
       </c>
       <c r="M20" s="1">
@@ -10848,54 +10939,54 @@
       <c r="O20" s="3">
         <v>1</v>
       </c>
-      <c r="P20" s="30">
+      <c r="P20" s="31">
         <f>M20</f>
         <v>9987</v>
       </c>
-      <c r="Q20" s="31">
+      <c r="Q20" s="32">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="AD20" s="33">
+      <c r="AD20" s="34">
         <f>$AI$19</f>
         <v>35894442</v>
       </c>
-      <c r="AI20" s="31">
+      <c r="AI20" s="32">
         <f t="shared" si="87"/>
         <v>35894442</v>
       </c>
-      <c r="AJ20" s="29">
+      <c r="AJ20" s="30">
         <f>$AO$19</f>
         <v>18769108</v>
       </c>
-      <c r="AN20" s="30">
+      <c r="AN20" s="31">
         <v>0</v>
       </c>
-      <c r="AO20" s="31">
+      <c r="AO20" s="32">
         <f t="shared" si="70"/>
         <v>18769108</v>
       </c>
-      <c r="AP20" s="29">
+      <c r="AP20" s="30">
         <f>$AU$19</f>
         <v>4502600</v>
       </c>
-      <c r="AT20" s="30">
+      <c r="AT20" s="31">
         <f>AQ20</f>
         <v>0</v>
       </c>
-      <c r="AU20" s="31">
+      <c r="AU20" s="32">
         <f t="shared" si="90"/>
         <v>4502600</v>
       </c>
-      <c r="AV20" s="29">
+      <c r="AV20" s="30">
         <f>$BA$19</f>
         <v>12082322</v>
       </c>
-      <c r="AZ20" s="30">
+      <c r="AZ20" s="31">
         <f>AW20</f>
         <v>0</v>
       </c>
-      <c r="BA20" s="31">
+      <c r="BA20" s="32">
         <f t="shared" si="92"/>
         <v>12082322</v>
       </c>
@@ -10904,55 +10995,55 @@
       <c r="A21" s="24">
         <v>43615</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="37">
-        <f>J21+P21+V21+AB21+AH21+AN21+AT21+AZ21</f>
+      <c r="C21" s="38">
+        <f t="shared" si="93"/>
         <v>6888953</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="29">
         <f t="shared" si="98"/>
         <v>492029</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E21" s="29">
         <f t="shared" si="99"/>
         <v>68086236</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="30">
         <f>$K$19</f>
         <v>4208759</v>
       </c>
-      <c r="G21" s="42">
+      <c r="G21" s="43">
         <v>107388</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="43">
         <v>1626</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="49">
         <v>0.8705</v>
       </c>
-      <c r="J21" s="30">
-        <f>J20+G21</f>
+      <c r="J21" s="31">
+        <f t="shared" ref="J21:J39" si="101">J20+G21</f>
         <v>3716730</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="32">
         <f t="shared" si="100"/>
         <v>492029</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="30">
         <v>9987</v>
       </c>
-      <c r="M21" s="45"/>
-      <c r="P21" s="30">
+      <c r="M21" s="50"/>
+      <c r="P21" s="31">
         <f>P20+M21</f>
         <v>9987</v>
       </c>
-      <c r="Q21" s="31">
-        <f>L21-P21</f>
+      <c r="Q21" s="32">
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="33">
+      <c r="AD21" s="34">
         <f>$AI$19</f>
         <v>35894442</v>
       </c>
@@ -10965,19 +11056,19 @@
       <c r="AG21" s="3">
         <v>0.6548</v>
       </c>
-      <c r="AH21" s="30">
-        <f>AH20+AE21</f>
+      <c r="AH21" s="31">
+        <f t="shared" ref="AH21:AH39" si="102">AH20+AE21</f>
         <v>1271528</v>
       </c>
-      <c r="AI21" s="31">
+      <c r="AI21" s="32">
         <f t="shared" si="87"/>
         <v>34622914</v>
       </c>
-      <c r="AJ21" s="29">
+      <c r="AJ21" s="30">
         <f>$AO$19</f>
         <v>18769108</v>
       </c>
-      <c r="AK21" s="45">
+      <c r="AK21" s="50">
         <v>1019364</v>
       </c>
       <c r="AL21">
@@ -10986,15 +11077,15 @@
       <c r="AM21" s="3">
         <v>0.9922</v>
       </c>
-      <c r="AN21" s="30">
-        <f>AN20+AK21</f>
+      <c r="AN21" s="31">
+        <f t="shared" ref="AN21:AN39" si="103">AN20+AK21</f>
         <v>1019364</v>
       </c>
-      <c r="AO21" s="31">
+      <c r="AO21" s="32">
         <f t="shared" si="70"/>
         <v>17749744</v>
       </c>
-      <c r="AP21" s="29">
+      <c r="AP21" s="30">
         <f>$AU$19</f>
         <v>4502600</v>
       </c>
@@ -11007,15 +11098,15 @@
       <c r="AS21" s="3">
         <v>1</v>
       </c>
-      <c r="AT21" s="30">
-        <f>AT20+AQ21</f>
+      <c r="AT21" s="31">
+        <f t="shared" ref="AT21:AT39" si="104">AT20+AQ21</f>
         <v>221073</v>
       </c>
-      <c r="AU21" s="31">
+      <c r="AU21" s="32">
         <f t="shared" si="90"/>
         <v>4281527</v>
       </c>
-      <c r="AV21" s="29">
+      <c r="AV21" s="30">
         <f>$BA$19</f>
         <v>12082322</v>
       </c>
@@ -11028,13 +11119,2479 @@
       <c r="AY21" s="3">
         <v>0.774</v>
       </c>
-      <c r="AZ21" s="30">
-        <f>AZ20+AW21</f>
+      <c r="AZ21" s="31">
+        <f t="shared" ref="AZ21:AZ39" si="105">AZ20+AW21</f>
         <v>650271</v>
       </c>
-      <c r="BA21" s="31">
+      <c r="BA21" s="32">
         <f t="shared" si="92"/>
         <v>11432051</v>
+      </c>
+    </row>
+    <row r="22" s="26" customFormat="1" spans="1:54">
+      <c r="A22" s="44">
+        <v>43622</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="45">
+        <f t="shared" si="93"/>
+        <v>9644204</v>
+      </c>
+      <c r="D22" s="46">
+        <f t="shared" si="98"/>
+        <v>490027</v>
+      </c>
+      <c r="E22" s="46">
+        <f t="shared" si="99"/>
+        <v>65332987</v>
+      </c>
+      <c r="F22" s="47">
+        <f>$K$19</f>
+        <v>4208759</v>
+      </c>
+      <c r="G22" s="26">
+        <v>2002</v>
+      </c>
+      <c r="H22" s="26">
+        <v>1625</v>
+      </c>
+      <c r="I22" s="51">
+        <v>0.0183</v>
+      </c>
+      <c r="J22" s="52">
+        <f t="shared" si="101"/>
+        <v>3718732</v>
+      </c>
+      <c r="K22" s="53">
+        <f t="shared" si="100"/>
+        <v>490027</v>
+      </c>
+      <c r="L22" s="47">
+        <v>9987</v>
+      </c>
+      <c r="O22" s="51"/>
+      <c r="P22" s="52">
+        <f>P21+M22</f>
+        <v>9987</v>
+      </c>
+      <c r="Q22" s="53">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="47"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="52"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="47"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="61">
+        <f>$AI$19</f>
+        <v>35894442</v>
+      </c>
+      <c r="AE22" s="26">
+        <v>1236182</v>
+      </c>
+      <c r="AF22" s="26">
+        <v>1638</v>
+      </c>
+      <c r="AG22" s="51">
+        <v>0.5762</v>
+      </c>
+      <c r="AH22" s="52">
+        <f t="shared" si="102"/>
+        <v>2507710</v>
+      </c>
+      <c r="AI22" s="53">
+        <f t="shared" si="87"/>
+        <v>33386732</v>
+      </c>
+      <c r="AJ22" s="47">
+        <f>$AO$19</f>
+        <v>18769108</v>
+      </c>
+      <c r="AK22" s="63">
+        <v>850726</v>
+      </c>
+      <c r="AL22" s="63">
+        <v>1719</v>
+      </c>
+      <c r="AM22" s="64">
+        <v>0.8926</v>
+      </c>
+      <c r="AN22" s="52">
+        <f t="shared" si="103"/>
+        <v>1870090</v>
+      </c>
+      <c r="AO22" s="53">
+        <f t="shared" si="70"/>
+        <v>16899018</v>
+      </c>
+      <c r="AP22" s="47">
+        <f>$AU$19</f>
+        <v>4502600</v>
+      </c>
+      <c r="AQ22" s="65">
+        <v>177291</v>
+      </c>
+      <c r="AR22" s="65">
+        <v>1793</v>
+      </c>
+      <c r="AS22" s="51">
+        <v>0.7976</v>
+      </c>
+      <c r="AT22" s="52">
+        <f t="shared" si="104"/>
+        <v>398364</v>
+      </c>
+      <c r="AU22" s="53">
+        <f t="shared" si="90"/>
+        <v>4104236</v>
+      </c>
+      <c r="AV22" s="47">
+        <f>$BA$19</f>
+        <v>12082322</v>
+      </c>
+      <c r="AW22" s="26">
+        <v>489050</v>
+      </c>
+      <c r="AX22" s="26">
+        <v>1675</v>
+      </c>
+      <c r="AY22" s="51">
+        <v>0.7764</v>
+      </c>
+      <c r="AZ22" s="52">
+        <f t="shared" si="105"/>
+        <v>1139321</v>
+      </c>
+      <c r="BA22" s="53">
+        <f t="shared" si="92"/>
+        <v>10943001</v>
+      </c>
+      <c r="BB22" s="66"/>
+    </row>
+    <row r="23" spans="1:53">
+      <c r="A23" s="44">
+        <v>43629</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="45">
+        <f t="shared" si="93"/>
+        <v>12185932</v>
+      </c>
+      <c r="D23" s="46">
+        <f t="shared" si="98"/>
+        <v>486996</v>
+      </c>
+      <c r="E23" s="46">
+        <f t="shared" si="99"/>
+        <v>62794290</v>
+      </c>
+      <c r="F23" s="47">
+        <f>$K$19</f>
+        <v>4208759</v>
+      </c>
+      <c r="G23">
+        <v>3031</v>
+      </c>
+      <c r="H23">
+        <v>1630</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0.0315348121020434</v>
+      </c>
+      <c r="J23" s="52">
+        <f t="shared" si="101"/>
+        <v>3721763</v>
+      </c>
+      <c r="K23" s="53">
+        <f t="shared" si="100"/>
+        <v>486996</v>
+      </c>
+      <c r="L23" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P23" s="52">
+        <f>P22+M23</f>
+        <v>9987</v>
+      </c>
+      <c r="Q23" s="53">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="61">
+        <f>$AI$19</f>
+        <v>35894442</v>
+      </c>
+      <c r="AE23">
+        <v>1147268</v>
+      </c>
+      <c r="AF23">
+        <v>1645</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>0.559033988830703</v>
+      </c>
+      <c r="AH23" s="52">
+        <f t="shared" si="102"/>
+        <v>3654978</v>
+      </c>
+      <c r="AI23" s="53">
+        <f t="shared" si="87"/>
+        <v>32239464</v>
+      </c>
+      <c r="AJ23" s="47">
+        <f>$AO$19</f>
+        <v>18769108</v>
+      </c>
+      <c r="AK23">
+        <v>755468</v>
+      </c>
+      <c r="AL23">
+        <v>1716</v>
+      </c>
+      <c r="AM23" s="54">
+        <v>0.8024</v>
+      </c>
+      <c r="AN23" s="52">
+        <f t="shared" si="103"/>
+        <v>2625558</v>
+      </c>
+      <c r="AO23" s="53">
+        <f t="shared" si="70"/>
+        <v>16143550</v>
+      </c>
+      <c r="AP23" s="47">
+        <f>$AU$19</f>
+        <v>4502600</v>
+      </c>
+      <c r="AQ23">
+        <v>168618</v>
+      </c>
+      <c r="AR23">
+        <v>1785</v>
+      </c>
+      <c r="AS23" s="3">
+        <v>0.7715</v>
+      </c>
+      <c r="AT23" s="52">
+        <f t="shared" si="104"/>
+        <v>566982</v>
+      </c>
+      <c r="AU23" s="53">
+        <f t="shared" si="90"/>
+        <v>3935618</v>
+      </c>
+      <c r="AV23" s="47">
+        <f>$BA$19</f>
+        <v>12082322</v>
+      </c>
+      <c r="AW23">
+        <v>467343</v>
+      </c>
+      <c r="AX23">
+        <v>1656</v>
+      </c>
+      <c r="AY23" s="3">
+        <v>0.697677855655328</v>
+      </c>
+      <c r="AZ23" s="52">
+        <f t="shared" si="105"/>
+        <v>1606664</v>
+      </c>
+      <c r="BA23" s="53">
+        <f t="shared" si="92"/>
+        <v>10475658</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:53">
+      <c r="A24" s="44">
+        <v>43636</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="45">
+        <f t="shared" si="93"/>
+        <v>14018363</v>
+      </c>
+      <c r="D24" s="46">
+        <f t="shared" si="98"/>
+        <v>474598</v>
+      </c>
+      <c r="E24" s="46">
+        <f t="shared" si="99"/>
+        <v>60974257</v>
+      </c>
+      <c r="F24" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G24">
+        <v>12398</v>
+      </c>
+      <c r="H24">
+        <v>899</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.1156</v>
+      </c>
+      <c r="J24" s="52">
+        <f t="shared" si="101"/>
+        <v>3734161</v>
+      </c>
+      <c r="K24" s="53">
+        <f t="shared" si="100"/>
+        <v>474598</v>
+      </c>
+      <c r="L24" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P24" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q24" s="53">
+        <v>0</v>
+      </c>
+      <c r="R24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE24" s="62">
+        <v>710359</v>
+      </c>
+      <c r="AF24">
+        <v>1641</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0.3459</v>
+      </c>
+      <c r="AH24" s="52">
+        <f t="shared" si="102"/>
+        <v>4365337</v>
+      </c>
+      <c r="AI24" s="53">
+        <f t="shared" si="87"/>
+        <v>31529105</v>
+      </c>
+      <c r="AJ24" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK24">
+        <v>680844</v>
+      </c>
+      <c r="AL24">
+        <v>1708</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>0.7113</v>
+      </c>
+      <c r="AN24" s="52">
+        <f t="shared" si="103"/>
+        <v>3306402</v>
+      </c>
+      <c r="AO24" s="53">
+        <f t="shared" si="70"/>
+        <v>15462706</v>
+      </c>
+      <c r="AP24" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ24">
+        <v>113157</v>
+      </c>
+      <c r="AR24">
+        <v>1780</v>
+      </c>
+      <c r="AS24" s="3">
+        <v>0.5147</v>
+      </c>
+      <c r="AT24" s="52">
+        <f t="shared" si="104"/>
+        <v>680139</v>
+      </c>
+      <c r="AU24" s="53">
+        <f t="shared" si="90"/>
+        <v>3822461</v>
+      </c>
+      <c r="AV24" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW24">
+        <v>315673</v>
+      </c>
+      <c r="AX24">
+        <v>1672</v>
+      </c>
+      <c r="AY24" s="3">
+        <v>0.4961</v>
+      </c>
+      <c r="AZ24" s="52">
+        <f t="shared" si="105"/>
+        <v>1922337</v>
+      </c>
+      <c r="BA24" s="53">
+        <f t="shared" si="92"/>
+        <v>10159985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53">
+      <c r="A25" s="44">
+        <v>43643</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="45">
+        <f t="shared" si="93"/>
+        <v>15355083</v>
+      </c>
+      <c r="D25" s="46">
+        <f t="shared" si="98"/>
+        <v>474598</v>
+      </c>
+      <c r="E25" s="46">
+        <f t="shared" si="99"/>
+        <v>59637537</v>
+      </c>
+      <c r="F25" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="52">
+        <f t="shared" si="101"/>
+        <v>3734161</v>
+      </c>
+      <c r="K25" s="53">
+        <f t="shared" si="100"/>
+        <v>474598</v>
+      </c>
+      <c r="L25" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P25" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q25" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE25">
+        <v>610162</v>
+      </c>
+      <c r="AF25">
+        <v>1629</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0.2972</v>
+      </c>
+      <c r="AH25" s="52">
+        <f t="shared" si="102"/>
+        <v>4975499</v>
+      </c>
+      <c r="AI25" s="53">
+        <f t="shared" si="87"/>
+        <v>30918943</v>
+      </c>
+      <c r="AJ25" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK25">
+        <v>464159</v>
+      </c>
+      <c r="AL25">
+        <v>1706</v>
+      </c>
+      <c r="AM25" s="3">
+        <v>0.4942</v>
+      </c>
+      <c r="AN25" s="52">
+        <f t="shared" si="103"/>
+        <v>3770561</v>
+      </c>
+      <c r="AO25" s="53">
+        <f t="shared" si="70"/>
+        <v>14998547</v>
+      </c>
+      <c r="AP25" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ25">
+        <v>40145</v>
+      </c>
+      <c r="AR25">
+        <v>1775</v>
+      </c>
+      <c r="AS25" s="3">
+        <v>0.1905</v>
+      </c>
+      <c r="AT25" s="52">
+        <f t="shared" si="104"/>
+        <v>720284</v>
+      </c>
+      <c r="AU25" s="53">
+        <f t="shared" si="90"/>
+        <v>3782316</v>
+      </c>
+      <c r="AV25" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW25">
+        <v>222254</v>
+      </c>
+      <c r="AX25">
+        <v>1670</v>
+      </c>
+      <c r="AY25" s="3">
+        <v>0.3357</v>
+      </c>
+      <c r="AZ25" s="52">
+        <f t="shared" si="105"/>
+        <v>2144591</v>
+      </c>
+      <c r="BA25" s="53">
+        <f t="shared" si="92"/>
+        <v>9937731</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53">
+      <c r="A26" s="44">
+        <v>43650</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="45">
+        <f t="shared" si="93"/>
+        <v>16224191</v>
+      </c>
+      <c r="D26" s="46">
+        <f t="shared" si="98"/>
+        <v>474598</v>
+      </c>
+      <c r="E26" s="46">
+        <f t="shared" si="99"/>
+        <v>58768429</v>
+      </c>
+      <c r="F26" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="52">
+        <f t="shared" si="101"/>
+        <v>3734161</v>
+      </c>
+      <c r="K26" s="53">
+        <f t="shared" si="100"/>
+        <v>474598</v>
+      </c>
+      <c r="L26" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P26" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q26" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE26">
+        <v>345410</v>
+      </c>
+      <c r="AF26">
+        <v>1632</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>0.1636</v>
+      </c>
+      <c r="AH26" s="52">
+        <f t="shared" si="102"/>
+        <v>5320909</v>
+      </c>
+      <c r="AI26" s="53">
+        <f t="shared" si="87"/>
+        <v>30573533</v>
+      </c>
+      <c r="AJ26" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK26">
+        <v>419071</v>
+      </c>
+      <c r="AL26">
+        <v>1707</v>
+      </c>
+      <c r="AM26" s="3">
+        <v>0.4446</v>
+      </c>
+      <c r="AN26" s="52">
+        <f t="shared" si="103"/>
+        <v>4189632</v>
+      </c>
+      <c r="AO26" s="53">
+        <f t="shared" si="70"/>
+        <v>14579476</v>
+      </c>
+      <c r="AP26" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ26">
+        <v>20185</v>
+      </c>
+      <c r="AR26">
+        <v>1778</v>
+      </c>
+      <c r="AS26" s="3">
+        <v>0.1009</v>
+      </c>
+      <c r="AT26" s="52">
+        <f t="shared" si="104"/>
+        <v>740469</v>
+      </c>
+      <c r="AU26" s="53">
+        <f t="shared" si="90"/>
+        <v>3762131</v>
+      </c>
+      <c r="AV26" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW26">
+        <v>84442</v>
+      </c>
+      <c r="AX26">
+        <v>1692</v>
+      </c>
+      <c r="AY26" s="3">
+        <v>0.1342</v>
+      </c>
+      <c r="AZ26" s="52">
+        <f t="shared" si="105"/>
+        <v>2229033</v>
+      </c>
+      <c r="BA26" s="53">
+        <f t="shared" si="92"/>
+        <v>9853289</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53">
+      <c r="A27" s="44">
+        <v>43657</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="45">
+        <f t="shared" si="93"/>
+        <v>16972514</v>
+      </c>
+      <c r="D27" s="46">
+        <f t="shared" si="98"/>
+        <v>474598</v>
+      </c>
+      <c r="E27" s="46">
+        <f t="shared" si="99"/>
+        <v>58020106</v>
+      </c>
+      <c r="F27" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="52">
+        <f t="shared" si="101"/>
+        <v>3734161</v>
+      </c>
+      <c r="K27" s="53">
+        <f t="shared" si="100"/>
+        <v>474598</v>
+      </c>
+      <c r="L27" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P27" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q27" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE27">
+        <v>324165</v>
+      </c>
+      <c r="AF27">
+        <v>1632</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>0.149</v>
+      </c>
+      <c r="AH27" s="52">
+        <f t="shared" si="102"/>
+        <v>5645074</v>
+      </c>
+      <c r="AI27" s="53">
+        <f t="shared" si="87"/>
+        <v>30249368</v>
+      </c>
+      <c r="AJ27" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK27">
+        <v>331248</v>
+      </c>
+      <c r="AL27">
+        <v>1705</v>
+      </c>
+      <c r="AM27" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="AN27" s="52">
+        <f t="shared" si="103"/>
+        <v>4520880</v>
+      </c>
+      <c r="AO27" s="53">
+        <f t="shared" si="70"/>
+        <v>14248228</v>
+      </c>
+      <c r="AP27" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ27">
+        <v>12833</v>
+      </c>
+      <c r="AR27">
+        <v>1780</v>
+      </c>
+      <c r="AS27" s="3">
+        <v>0.0686</v>
+      </c>
+      <c r="AT27" s="52">
+        <f t="shared" si="104"/>
+        <v>753302</v>
+      </c>
+      <c r="AU27" s="53">
+        <f t="shared" si="90"/>
+        <v>3749298</v>
+      </c>
+      <c r="AV27" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW27">
+        <v>80077</v>
+      </c>
+      <c r="AX27">
+        <v>1706</v>
+      </c>
+      <c r="AY27" s="3">
+        <v>0.1204</v>
+      </c>
+      <c r="AZ27" s="52">
+        <f t="shared" si="105"/>
+        <v>2309110</v>
+      </c>
+      <c r="BA27" s="53">
+        <f t="shared" si="92"/>
+        <v>9773212</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53">
+      <c r="A28" s="44">
+        <v>43664</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="45">
+        <f t="shared" si="93"/>
+        <v>17495435</v>
+      </c>
+      <c r="D28" s="46">
+        <f t="shared" si="98"/>
+        <v>474598</v>
+      </c>
+      <c r="E28" s="46">
+        <f t="shared" si="99"/>
+        <v>57497185</v>
+      </c>
+      <c r="F28" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="54">
+        <v>0</v>
+      </c>
+      <c r="J28" s="52">
+        <f t="shared" si="101"/>
+        <v>3734161</v>
+      </c>
+      <c r="K28" s="53">
+        <f t="shared" si="100"/>
+        <v>474598</v>
+      </c>
+      <c r="L28" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P28" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q28" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE28">
+        <v>185923</v>
+      </c>
+      <c r="AF28">
+        <v>1630</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0.0846</v>
+      </c>
+      <c r="AH28" s="52">
+        <f t="shared" si="102"/>
+        <v>5830997</v>
+      </c>
+      <c r="AI28" s="53">
+        <f t="shared" si="87"/>
+        <v>30063445</v>
+      </c>
+      <c r="AJ28" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK28">
+        <v>277025</v>
+      </c>
+      <c r="AL28">
+        <v>1705</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>0.3166</v>
+      </c>
+      <c r="AN28" s="52">
+        <f t="shared" si="103"/>
+        <v>4797905</v>
+      </c>
+      <c r="AO28" s="53">
+        <f t="shared" si="70"/>
+        <v>13971203</v>
+      </c>
+      <c r="AP28" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="52">
+        <f t="shared" si="104"/>
+        <v>753302</v>
+      </c>
+      <c r="AU28" s="53">
+        <f t="shared" si="90"/>
+        <v>3749298</v>
+      </c>
+      <c r="AV28" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW28">
+        <v>59973</v>
+      </c>
+      <c r="AX28">
+        <v>1754</v>
+      </c>
+      <c r="AY28" s="3">
+        <v>0.0968</v>
+      </c>
+      <c r="AZ28" s="52">
+        <f t="shared" si="105"/>
+        <v>2369083</v>
+      </c>
+      <c r="BA28" s="53">
+        <f t="shared" si="92"/>
+        <v>9713239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53">
+      <c r="A29" s="44">
+        <v>43671</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="45">
+        <f t="shared" si="93"/>
+        <v>18176845</v>
+      </c>
+      <c r="D29" s="46">
+        <f t="shared" si="98"/>
+        <v>461141</v>
+      </c>
+      <c r="E29" s="46">
+        <f t="shared" si="99"/>
+        <v>56829232</v>
+      </c>
+      <c r="F29" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G29">
+        <v>13457</v>
+      </c>
+      <c r="H29">
+        <v>1593</v>
+      </c>
+      <c r="I29" s="54">
+        <v>0</v>
+      </c>
+      <c r="J29" s="52">
+        <f t="shared" si="101"/>
+        <v>3747618</v>
+      </c>
+      <c r="K29" s="53">
+        <f t="shared" si="100"/>
+        <v>461141</v>
+      </c>
+      <c r="L29" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P29" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q29" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE29">
+        <v>295887</v>
+      </c>
+      <c r="AF29">
+        <v>1623</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0.1418</v>
+      </c>
+      <c r="AH29" s="52">
+        <f t="shared" si="102"/>
+        <v>6126884</v>
+      </c>
+      <c r="AI29" s="53">
+        <f t="shared" si="87"/>
+        <v>29767558</v>
+      </c>
+      <c r="AJ29" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK29">
+        <v>292720</v>
+      </c>
+      <c r="AL29">
+        <v>1711</v>
+      </c>
+      <c r="AM29" s="54">
+        <v>0.3105</v>
+      </c>
+      <c r="AN29" s="52">
+        <f t="shared" si="103"/>
+        <v>5090625</v>
+      </c>
+      <c r="AO29" s="53">
+        <f t="shared" si="70"/>
+        <v>13678483</v>
+      </c>
+      <c r="AP29" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ29">
+        <v>32895</v>
+      </c>
+      <c r="AR29">
+        <v>1778</v>
+      </c>
+      <c r="AS29" s="3">
+        <v>0.1712</v>
+      </c>
+      <c r="AT29" s="52">
+        <f t="shared" si="104"/>
+        <v>786197</v>
+      </c>
+      <c r="AU29" s="53">
+        <f t="shared" si="90"/>
+        <v>3716403</v>
+      </c>
+      <c r="AV29" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW29">
+        <v>46451</v>
+      </c>
+      <c r="AX29">
+        <v>1760</v>
+      </c>
+      <c r="AY29" s="3">
+        <v>0.07</v>
+      </c>
+      <c r="AZ29" s="52">
+        <f t="shared" si="105"/>
+        <v>2415534</v>
+      </c>
+      <c r="BA29" s="53">
+        <f t="shared" si="92"/>
+        <v>9666788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53">
+      <c r="A30" s="44">
+        <v>43678</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="45">
+        <f t="shared" si="93"/>
+        <v>18936908</v>
+      </c>
+      <c r="D30" s="46">
+        <f t="shared" si="98"/>
+        <v>443620</v>
+      </c>
+      <c r="E30" s="46">
+        <f t="shared" si="99"/>
+        <v>56086690</v>
+      </c>
+      <c r="F30" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G30">
+        <v>17521</v>
+      </c>
+      <c r="H30">
+        <v>1606</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.3861</v>
+      </c>
+      <c r="J30" s="52">
+        <f t="shared" si="101"/>
+        <v>3765139</v>
+      </c>
+      <c r="K30" s="53">
+        <f t="shared" si="100"/>
+        <v>443620</v>
+      </c>
+      <c r="L30" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P30" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q30" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE30">
+        <v>214062</v>
+      </c>
+      <c r="AF30">
+        <v>1617</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0.1015</v>
+      </c>
+      <c r="AH30" s="52">
+        <f t="shared" si="102"/>
+        <v>6340946</v>
+      </c>
+      <c r="AI30" s="53">
+        <f t="shared" si="87"/>
+        <v>29553496</v>
+      </c>
+      <c r="AJ30" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK30">
+        <v>291628</v>
+      </c>
+      <c r="AL30">
+        <v>1705</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>0.3067</v>
+      </c>
+      <c r="AN30" s="52">
+        <f t="shared" si="103"/>
+        <v>5382253</v>
+      </c>
+      <c r="AO30" s="53">
+        <f t="shared" si="70"/>
+        <v>13386855</v>
+      </c>
+      <c r="AP30" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ30">
+        <v>49603</v>
+      </c>
+      <c r="AR30">
+        <v>1775</v>
+      </c>
+      <c r="AS30" s="3">
+        <v>0.2791</v>
+      </c>
+      <c r="AT30" s="52">
+        <f t="shared" si="104"/>
+        <v>835800</v>
+      </c>
+      <c r="AU30" s="53">
+        <f t="shared" si="90"/>
+        <v>3666800</v>
+      </c>
+      <c r="AV30" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW30">
+        <v>187249</v>
+      </c>
+      <c r="AX30">
+        <v>1668</v>
+      </c>
+      <c r="AY30" s="3">
+        <v>0.3018</v>
+      </c>
+      <c r="AZ30" s="52">
+        <f t="shared" si="105"/>
+        <v>2602783</v>
+      </c>
+      <c r="BA30" s="53">
+        <f t="shared" si="92"/>
+        <v>9479539</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53">
+      <c r="A31" s="44">
+        <v>43685</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="45">
+        <f t="shared" si="93"/>
+        <v>19552218</v>
+      </c>
+      <c r="D31" s="46">
+        <f t="shared" si="98"/>
+        <v>443620</v>
+      </c>
+      <c r="E31" s="46">
+        <f t="shared" si="99"/>
+        <v>55471380</v>
+      </c>
+      <c r="F31" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="52">
+        <f t="shared" si="101"/>
+        <v>3765139</v>
+      </c>
+      <c r="K31" s="53">
+        <f t="shared" si="100"/>
+        <v>443620</v>
+      </c>
+      <c r="L31" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P31" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q31" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE31">
+        <v>184130</v>
+      </c>
+      <c r="AF31">
+        <v>1633</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0.0882</v>
+      </c>
+      <c r="AH31" s="52">
+        <f t="shared" si="102"/>
+        <v>6525076</v>
+      </c>
+      <c r="AI31" s="53">
+        <f t="shared" si="87"/>
+        <v>29369366</v>
+      </c>
+      <c r="AJ31" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK31">
+        <v>244618</v>
+      </c>
+      <c r="AL31">
+        <v>1705</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>0.2461</v>
+      </c>
+      <c r="AN31" s="52">
+        <f t="shared" si="103"/>
+        <v>5626871</v>
+      </c>
+      <c r="AO31" s="53">
+        <f t="shared" si="70"/>
+        <v>13142237</v>
+      </c>
+      <c r="AP31" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ31">
+        <v>40237</v>
+      </c>
+      <c r="AR31">
+        <v>1793</v>
+      </c>
+      <c r="AS31" s="3">
+        <v>0.1832</v>
+      </c>
+      <c r="AT31" s="52">
+        <f t="shared" si="104"/>
+        <v>876037</v>
+      </c>
+      <c r="AU31" s="53">
+        <f t="shared" si="90"/>
+        <v>3626563</v>
+      </c>
+      <c r="AV31" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW31">
+        <v>146325</v>
+      </c>
+      <c r="AX31">
+        <v>1679</v>
+      </c>
+      <c r="AY31" s="3">
+        <v>0.2164</v>
+      </c>
+      <c r="AZ31" s="52">
+        <f t="shared" si="105"/>
+        <v>2749108</v>
+      </c>
+      <c r="BA31" s="53">
+        <f t="shared" si="92"/>
+        <v>9333214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53">
+      <c r="A32" s="44">
+        <v>43692</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="45">
+        <f t="shared" si="93"/>
+        <v>20070603</v>
+      </c>
+      <c r="D32" s="46">
+        <f t="shared" si="98"/>
+        <v>443620</v>
+      </c>
+      <c r="E32" s="46">
+        <f t="shared" si="99"/>
+        <v>54952995</v>
+      </c>
+      <c r="F32" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="52">
+        <f t="shared" si="101"/>
+        <v>3765139</v>
+      </c>
+      <c r="K32" s="53">
+        <f t="shared" si="100"/>
+        <v>443620</v>
+      </c>
+      <c r="L32" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P32" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q32" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE32">
+        <v>120171</v>
+      </c>
+      <c r="AF32">
+        <v>1640</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>0.0576</v>
+      </c>
+      <c r="AH32" s="52">
+        <f t="shared" si="102"/>
+        <v>6645247</v>
+      </c>
+      <c r="AI32" s="53">
+        <f t="shared" si="87"/>
+        <v>29249195</v>
+      </c>
+      <c r="AJ32" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK32">
+        <v>210448</v>
+      </c>
+      <c r="AL32">
+        <v>1704</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>0.2114</v>
+      </c>
+      <c r="AN32" s="52">
+        <f t="shared" si="103"/>
+        <v>5837319</v>
+      </c>
+      <c r="AO32" s="53">
+        <f t="shared" si="70"/>
+        <v>12931789</v>
+      </c>
+      <c r="AP32" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ32">
+        <v>48629</v>
+      </c>
+      <c r="AR32">
+        <v>1778</v>
+      </c>
+      <c r="AS32" s="3">
+        <v>0.2219</v>
+      </c>
+      <c r="AT32" s="52">
+        <f t="shared" si="104"/>
+        <v>924666</v>
+      </c>
+      <c r="AU32" s="53">
+        <f t="shared" si="90"/>
+        <v>3577934</v>
+      </c>
+      <c r="AV32" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW32">
+        <v>139137</v>
+      </c>
+      <c r="AX32">
+        <v>1658</v>
+      </c>
+      <c r="AY32" s="3">
+        <v>0.2109</v>
+      </c>
+      <c r="AZ32" s="52">
+        <f t="shared" si="105"/>
+        <v>2888245</v>
+      </c>
+      <c r="BA32" s="53">
+        <f t="shared" si="92"/>
+        <v>9194077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:53">
+      <c r="A33" s="44">
+        <v>43699</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="45">
+        <f t="shared" si="93"/>
+        <v>20513229</v>
+      </c>
+      <c r="D33" s="46">
+        <f t="shared" si="98"/>
+        <v>443617</v>
+      </c>
+      <c r="E33" s="46">
+        <f t="shared" si="99"/>
+        <v>54510372</v>
+      </c>
+      <c r="F33" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33">
+        <v>1590</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="J33" s="52">
+        <f t="shared" si="101"/>
+        <v>3765142</v>
+      </c>
+      <c r="K33" s="53">
+        <f t="shared" si="100"/>
+        <v>443617</v>
+      </c>
+      <c r="L33" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P33" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q33" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE33">
+        <v>124165</v>
+      </c>
+      <c r="AF33">
+        <v>1632</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>0.0618</v>
+      </c>
+      <c r="AH33" s="52">
+        <f t="shared" si="102"/>
+        <v>6769412</v>
+      </c>
+      <c r="AI33" s="53">
+        <f t="shared" si="87"/>
+        <v>29125030</v>
+      </c>
+      <c r="AJ33" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK33">
+        <v>186731</v>
+      </c>
+      <c r="AL33">
+        <v>1708</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>0.0926</v>
+      </c>
+      <c r="AN33" s="52">
+        <f t="shared" si="103"/>
+        <v>6024050</v>
+      </c>
+      <c r="AO33" s="53">
+        <f t="shared" si="70"/>
+        <v>12745058</v>
+      </c>
+      <c r="AP33" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ33">
+        <v>20279</v>
+      </c>
+      <c r="AR33">
+        <v>1780</v>
+      </c>
+      <c r="AS33" s="3">
+        <v>0.0926</v>
+      </c>
+      <c r="AT33" s="52">
+        <f t="shared" si="104"/>
+        <v>944945</v>
+      </c>
+      <c r="AU33" s="53">
+        <f t="shared" si="90"/>
+        <v>3557655</v>
+      </c>
+      <c r="AV33" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW33">
+        <v>111448</v>
+      </c>
+      <c r="AX33">
+        <v>1669</v>
+      </c>
+      <c r="AY33" s="3">
+        <v>0.1532</v>
+      </c>
+      <c r="AZ33" s="52">
+        <f t="shared" si="105"/>
+        <v>2999693</v>
+      </c>
+      <c r="BA33" s="53">
+        <f t="shared" si="92"/>
+        <v>9082629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:53">
+      <c r="A34" s="44">
+        <v>43706</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="45">
+        <f t="shared" si="93"/>
+        <v>20858219</v>
+      </c>
+      <c r="D34" s="46">
+        <f t="shared" si="98"/>
+        <v>443617</v>
+      </c>
+      <c r="E34" s="46">
+        <f t="shared" si="99"/>
+        <v>54165382</v>
+      </c>
+      <c r="F34" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="52">
+        <f t="shared" si="101"/>
+        <v>3765142</v>
+      </c>
+      <c r="K34" s="53">
+        <f t="shared" si="100"/>
+        <v>443617</v>
+      </c>
+      <c r="L34" s="47">
+        <v>9987</v>
+      </c>
+      <c r="P34" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q34" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE34">
+        <v>118911</v>
+      </c>
+      <c r="AF34">
+        <v>1643</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0.0561</v>
+      </c>
+      <c r="AH34" s="52">
+        <f t="shared" si="102"/>
+        <v>6888323</v>
+      </c>
+      <c r="AI34" s="53">
+        <f t="shared" si="87"/>
+        <v>29006119</v>
+      </c>
+      <c r="AJ34" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK34">
+        <v>111264</v>
+      </c>
+      <c r="AL34">
+        <v>1701</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>0.1154</v>
+      </c>
+      <c r="AN34" s="52">
+        <f t="shared" si="103"/>
+        <v>6135314</v>
+      </c>
+      <c r="AO34" s="53">
+        <f t="shared" si="70"/>
+        <v>12633794</v>
+      </c>
+      <c r="AP34" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ34">
+        <v>8217</v>
+      </c>
+      <c r="AR34">
+        <v>1780</v>
+      </c>
+      <c r="AS34" s="3">
+        <v>0.0375</v>
+      </c>
+      <c r="AT34" s="52">
+        <f t="shared" si="104"/>
+        <v>953162</v>
+      </c>
+      <c r="AU34" s="53">
+        <f t="shared" si="90"/>
+        <v>3549438</v>
+      </c>
+      <c r="AV34" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW34">
+        <v>106598</v>
+      </c>
+      <c r="AX34">
+        <v>1668</v>
+      </c>
+      <c r="AY34" s="3">
+        <v>0.1614</v>
+      </c>
+      <c r="AZ34" s="52">
+        <f t="shared" si="105"/>
+        <v>3106291</v>
+      </c>
+      <c r="BA34" s="53">
+        <f t="shared" si="92"/>
+        <v>8976031</v>
+      </c>
+    </row>
+    <row r="35" spans="1:53">
+      <c r="A35" s="44">
+        <v>43713</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="45">
+        <f t="shared" si="93"/>
+        <v>21093788</v>
+      </c>
+      <c r="D35" s="46">
+        <f t="shared" si="98"/>
+        <v>443617</v>
+      </c>
+      <c r="E35" s="46">
+        <f t="shared" si="99"/>
+        <v>53929813</v>
+      </c>
+      <c r="F35" s="47">
+        <v>4208759</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="52">
+        <f t="shared" si="101"/>
+        <v>3765142</v>
+      </c>
+      <c r="K35" s="53">
+        <f t="shared" si="100"/>
+        <v>443617</v>
+      </c>
+      <c r="L35" s="47">
+        <v>9988</v>
+      </c>
+      <c r="P35" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q35" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE35">
+        <v>56457</v>
+      </c>
+      <c r="AF35">
+        <v>1639</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>0.0403</v>
+      </c>
+      <c r="AH35" s="52">
+        <f t="shared" si="102"/>
+        <v>6944780</v>
+      </c>
+      <c r="AI35" s="53">
+        <f t="shared" si="87"/>
+        <v>28949662</v>
+      </c>
+      <c r="AJ35" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK35">
+        <v>86116</v>
+      </c>
+      <c r="AL35">
+        <v>1704</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>0.075</v>
+      </c>
+      <c r="AN35" s="52">
+        <f t="shared" si="103"/>
+        <v>6221430</v>
+      </c>
+      <c r="AO35" s="53">
+        <f t="shared" si="70"/>
+        <v>12547678</v>
+      </c>
+      <c r="AP35" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ35">
+        <v>23392</v>
+      </c>
+      <c r="AR35">
+        <v>1780</v>
+      </c>
+      <c r="AS35" s="3">
+        <v>0.1066</v>
+      </c>
+      <c r="AT35" s="52">
+        <f t="shared" si="104"/>
+        <v>976554</v>
+      </c>
+      <c r="AU35" s="53">
+        <f t="shared" si="90"/>
+        <v>3526046</v>
+      </c>
+      <c r="AV35" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW35">
+        <v>69604</v>
+      </c>
+      <c r="AX35">
+        <v>1626</v>
+      </c>
+      <c r="AY35" s="3">
+        <v>0.0926</v>
+      </c>
+      <c r="AZ35" s="52">
+        <f t="shared" si="105"/>
+        <v>3175895</v>
+      </c>
+      <c r="BA35" s="53">
+        <f t="shared" si="92"/>
+        <v>8906427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:53">
+      <c r="A36" s="44">
+        <v>43720</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="45">
+        <f t="shared" si="93"/>
+        <v>21357023</v>
+      </c>
+      <c r="D36" s="46">
+        <f t="shared" si="98"/>
+        <v>438150</v>
+      </c>
+      <c r="E36" s="46">
+        <f t="shared" si="99"/>
+        <v>53672046</v>
+      </c>
+      <c r="F36" s="47">
+        <v>4208760</v>
+      </c>
+      <c r="G36">
+        <v>5468</v>
+      </c>
+      <c r="H36">
+        <v>1590</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0.1464</v>
+      </c>
+      <c r="J36" s="52">
+        <f t="shared" si="101"/>
+        <v>3770610</v>
+      </c>
+      <c r="K36" s="53">
+        <f t="shared" si="100"/>
+        <v>438150</v>
+      </c>
+      <c r="L36" s="47">
+        <v>9988</v>
+      </c>
+      <c r="P36" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q36" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE36">
+        <v>62801</v>
+      </c>
+      <c r="AF36">
+        <v>1618</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>0.046</v>
+      </c>
+      <c r="AH36" s="52">
+        <f t="shared" si="102"/>
+        <v>7007581</v>
+      </c>
+      <c r="AI36" s="53">
+        <f t="shared" si="87"/>
+        <v>28886861</v>
+      </c>
+      <c r="AJ36" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK36">
+        <v>88761</v>
+      </c>
+      <c r="AL36">
+        <v>1696</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>0.0757</v>
+      </c>
+      <c r="AN36" s="52">
+        <f t="shared" si="103"/>
+        <v>6310191</v>
+      </c>
+      <c r="AO36" s="53">
+        <f t="shared" si="70"/>
+        <v>12458917</v>
+      </c>
+      <c r="AP36" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ36">
+        <v>16000</v>
+      </c>
+      <c r="AR36">
+        <v>1780</v>
+      </c>
+      <c r="AS36" s="3">
+        <v>0.0739</v>
+      </c>
+      <c r="AT36" s="52">
+        <f t="shared" si="104"/>
+        <v>992554</v>
+      </c>
+      <c r="AU36" s="53">
+        <f t="shared" si="90"/>
+        <v>3510046</v>
+      </c>
+      <c r="AV36" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW36">
+        <v>90205</v>
+      </c>
+      <c r="AX36">
+        <v>1659</v>
+      </c>
+      <c r="AY36" s="3">
+        <v>0.1374</v>
+      </c>
+      <c r="AZ36" s="52">
+        <f t="shared" si="105"/>
+        <v>3266100</v>
+      </c>
+      <c r="BA36" s="53">
+        <f t="shared" si="92"/>
+        <v>8816222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:53">
+      <c r="A37" s="44">
+        <v>43727</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="45">
+        <f t="shared" si="93"/>
+        <v>21615896</v>
+      </c>
+      <c r="D37" s="46">
+        <f t="shared" si="98"/>
+        <v>437282</v>
+      </c>
+      <c r="E37" s="46">
+        <f t="shared" si="99"/>
+        <v>53414041</v>
+      </c>
+      <c r="F37" s="47">
+        <v>4208760</v>
+      </c>
+      <c r="G37">
+        <v>868</v>
+      </c>
+      <c r="H37">
+        <v>1590</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0.0199</v>
+      </c>
+      <c r="J37" s="52">
+        <f t="shared" si="101"/>
+        <v>3771478</v>
+      </c>
+      <c r="K37" s="53">
+        <f t="shared" si="100"/>
+        <v>437282</v>
+      </c>
+      <c r="L37" s="47">
+        <v>9988</v>
+      </c>
+      <c r="P37" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q37" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE37">
+        <v>87011</v>
+      </c>
+      <c r="AF37">
+        <v>1618</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>0.0618</v>
+      </c>
+      <c r="AH37" s="52">
+        <f t="shared" si="102"/>
+        <v>7094592</v>
+      </c>
+      <c r="AI37" s="53">
+        <f t="shared" si="87"/>
+        <v>28799850</v>
+      </c>
+      <c r="AJ37" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK37">
+        <v>115245</v>
+      </c>
+      <c r="AL37">
+        <v>1705</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>0.1054</v>
+      </c>
+      <c r="AN37" s="52">
+        <f t="shared" si="103"/>
+        <v>6425436</v>
+      </c>
+      <c r="AO37" s="53">
+        <f t="shared" si="70"/>
+        <v>12343672</v>
+      </c>
+      <c r="AP37" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ37">
+        <v>19160</v>
+      </c>
+      <c r="AR37">
+        <v>1780</v>
+      </c>
+      <c r="AS37" s="3">
+        <v>0.0878</v>
+      </c>
+      <c r="AT37" s="52">
+        <f t="shared" si="104"/>
+        <v>1011714</v>
+      </c>
+      <c r="AU37" s="53">
+        <f t="shared" si="90"/>
+        <v>3490886</v>
+      </c>
+      <c r="AV37" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW37">
+        <v>36589</v>
+      </c>
+      <c r="AX37">
+        <v>1687</v>
+      </c>
+      <c r="AY37" s="3">
+        <v>0.054</v>
+      </c>
+      <c r="AZ37" s="52">
+        <f t="shared" si="105"/>
+        <v>3302689</v>
+      </c>
+      <c r="BA37" s="53">
+        <f t="shared" si="92"/>
+        <v>8779633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:53">
+      <c r="A38" s="44">
+        <v>43734</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="45">
+        <f t="shared" si="93"/>
+        <v>21721184</v>
+      </c>
+      <c r="D38" s="46">
+        <f t="shared" si="98"/>
+        <v>437282</v>
+      </c>
+      <c r="E38" s="46">
+        <f t="shared" si="99"/>
+        <v>53308753</v>
+      </c>
+      <c r="F38" s="47">
+        <v>4208760</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="52">
+        <f t="shared" si="101"/>
+        <v>3771478</v>
+      </c>
+      <c r="K38" s="53">
+        <f t="shared" si="100"/>
+        <v>437282</v>
+      </c>
+      <c r="L38" s="47">
+        <v>9988</v>
+      </c>
+      <c r="P38" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q38" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE38">
+        <v>19869</v>
+      </c>
+      <c r="AF38">
+        <v>1624</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>0.0133</v>
+      </c>
+      <c r="AH38" s="52">
+        <f t="shared" si="102"/>
+        <v>7114461</v>
+      </c>
+      <c r="AI38" s="53">
+        <f t="shared" si="87"/>
+        <v>28779981</v>
+      </c>
+      <c r="AJ38" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK38">
+        <v>30134</v>
+      </c>
+      <c r="AL38">
+        <v>1697</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>0.0272</v>
+      </c>
+      <c r="AN38" s="52">
+        <f t="shared" si="103"/>
+        <v>6455570</v>
+      </c>
+      <c r="AO38" s="53">
+        <f t="shared" si="70"/>
+        <v>12313538</v>
+      </c>
+      <c r="AP38" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ38">
+        <v>6188</v>
+      </c>
+      <c r="AR38">
+        <v>1780</v>
+      </c>
+      <c r="AS38" s="3">
+        <v>0.0279</v>
+      </c>
+      <c r="AT38" s="52">
+        <f t="shared" si="104"/>
+        <v>1017902</v>
+      </c>
+      <c r="AU38" s="53">
+        <f t="shared" si="90"/>
+        <v>3484698</v>
+      </c>
+      <c r="AV38" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW38">
+        <v>49097</v>
+      </c>
+      <c r="AX38">
+        <v>1735</v>
+      </c>
+      <c r="AY38" s="3">
+        <v>0.0733</v>
+      </c>
+      <c r="AZ38" s="52">
+        <f t="shared" si="105"/>
+        <v>3351786</v>
+      </c>
+      <c r="BA38" s="53">
+        <f t="shared" si="92"/>
+        <v>8730536</v>
+      </c>
+    </row>
+    <row r="39" spans="1:53">
+      <c r="A39" s="44">
+        <v>43748</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="45">
+        <f t="shared" si="93"/>
+        <v>21799943</v>
+      </c>
+      <c r="D39" s="46">
+        <f t="shared" si="98"/>
+        <v>437282</v>
+      </c>
+      <c r="E39" s="46">
+        <f t="shared" si="99"/>
+        <v>53229994</v>
+      </c>
+      <c r="F39" s="47">
+        <v>4208760</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="52">
+        <f t="shared" si="101"/>
+        <v>3771478</v>
+      </c>
+      <c r="K39" s="53">
+        <f t="shared" si="100"/>
+        <v>437282</v>
+      </c>
+      <c r="L39" s="47">
+        <v>9988</v>
+      </c>
+      <c r="P39" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q39" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="52">
+        <f t="shared" si="102"/>
+        <v>7114461</v>
+      </c>
+      <c r="AI39" s="53">
+        <f t="shared" si="87"/>
+        <v>28779981</v>
+      </c>
+      <c r="AJ39" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK39">
+        <v>15216</v>
+      </c>
+      <c r="AL39">
+        <v>1713</v>
+      </c>
+      <c r="AM39" s="3">
+        <v>0.0138</v>
+      </c>
+      <c r="AN39" s="52">
+        <f t="shared" si="103"/>
+        <v>6470786</v>
+      </c>
+      <c r="AO39" s="53">
+        <f t="shared" si="70"/>
+        <v>12298322</v>
+      </c>
+      <c r="AP39" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ39">
+        <v>21970</v>
+      </c>
+      <c r="AR39">
+        <v>1780</v>
+      </c>
+      <c r="AS39" s="3">
+        <v>0.0959</v>
+      </c>
+      <c r="AT39" s="52">
+        <f t="shared" si="104"/>
+        <v>1039872</v>
+      </c>
+      <c r="AU39" s="53">
+        <f t="shared" si="90"/>
+        <v>3462728</v>
+      </c>
+      <c r="AV39" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW39">
+        <v>41573</v>
+      </c>
+      <c r="AX39">
+        <v>1734</v>
+      </c>
+      <c r="AY39" s="3">
+        <v>0.0616</v>
+      </c>
+      <c r="AZ39" s="52">
+        <f t="shared" si="105"/>
+        <v>3393359</v>
+      </c>
+      <c r="BA39" s="53">
+        <f t="shared" si="92"/>
+        <v>8688963</v>
+      </c>
+    </row>
+    <row r="40" spans="1:53">
+      <c r="A40" s="44">
+        <v>43755</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" s="45">
+        <f>J40+P40+V40+AB40+AH40+AN40+AT40+AZ40</f>
+        <v>21910297</v>
+      </c>
+      <c r="D40" s="46">
+        <f>+K40+Q40+W40+AC40</f>
+        <v>433282</v>
+      </c>
+      <c r="E40" s="46">
+        <f>AI40+AO40+AU40+BA40</f>
+        <v>53123640</v>
+      </c>
+      <c r="F40" s="47">
+        <v>4208760</v>
+      </c>
+      <c r="G40">
+        <v>4000</v>
+      </c>
+      <c r="H40">
+        <v>1580</v>
+      </c>
+      <c r="I40" s="3">
+        <v>1</v>
+      </c>
+      <c r="J40" s="52">
+        <f>J39+G40</f>
+        <v>3775478</v>
+      </c>
+      <c r="K40" s="53">
+        <f>F40-J40</f>
+        <v>433282</v>
+      </c>
+      <c r="L40" s="47">
+        <v>9988</v>
+      </c>
+      <c r="P40" s="52">
+        <v>9987</v>
+      </c>
+      <c r="Q40" s="53">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="61">
+        <v>35894442</v>
+      </c>
+      <c r="AE40">
+        <v>24505</v>
+      </c>
+      <c r="AF40">
+        <v>1604</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>0.0188</v>
+      </c>
+      <c r="AH40" s="52">
+        <f>AH39+AE40</f>
+        <v>7138966</v>
+      </c>
+      <c r="AI40" s="53">
+        <f>AD40-AH40</f>
+        <v>28755476</v>
+      </c>
+      <c r="AJ40" s="47">
+        <v>18769108</v>
+      </c>
+      <c r="AK40">
+        <v>42680</v>
+      </c>
+      <c r="AL40">
+        <v>1715</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>0.0387</v>
+      </c>
+      <c r="AN40" s="52">
+        <f>AN39+AK40</f>
+        <v>6513466</v>
+      </c>
+      <c r="AO40" s="53">
+        <f>AJ40-AN40</f>
+        <v>12255642</v>
+      </c>
+      <c r="AP40" s="47">
+        <v>4502600</v>
+      </c>
+      <c r="AQ40">
+        <v>25864</v>
+      </c>
+      <c r="AR40">
+        <v>1783</v>
+      </c>
+      <c r="AS40" s="3">
+        <v>0.1161</v>
+      </c>
+      <c r="AT40" s="52">
+        <f>AT39+AQ40</f>
+        <v>1065736</v>
+      </c>
+      <c r="AU40" s="53">
+        <f>AP40-AT40</f>
+        <v>3436864</v>
+      </c>
+      <c r="AV40" s="47">
+        <v>12082322</v>
+      </c>
+      <c r="AW40">
+        <v>13305</v>
+      </c>
+      <c r="AX40">
+        <v>1747</v>
+      </c>
+      <c r="AY40" s="3">
+        <v>0.0199</v>
+      </c>
+      <c r="AZ40" s="52">
+        <f>AZ39+AW40</f>
+        <v>3406664</v>
+      </c>
+      <c r="BA40" s="53">
+        <f>AV40-AZ40</f>
+        <v>8675658</v>
       </c>
     </row>
   </sheetData>
@@ -11076,13 +13633,13 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11309,8 +13866,8 @@
   <sheetPr/>
   <dimension ref="E10:N22"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11330,14 +13887,14 @@
     <row r="11" ht="18.75" spans="6:13">
       <c r="F11" s="6">
         <f>INDEX(detail!A4:A99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>43615</v>
+        <v>43755</v>
       </c>
       <c r="G11" s="7" t="str">
         <f>INDEX(detail!B4:B99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>第2周</v>
+        <v>第21周</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>9</v>
@@ -11355,10 +13912,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="5:14">
+    <row r="12" ht="14.25" hidden="1" spans="5:14">
       <c r="E12">
         <f>I12+I17</f>
-        <v>1378916</v>
+        <v>28505</v>
       </c>
       <c r="F12" s="8">
         <v>2014</v>
@@ -11367,38 +13924,38 @@
         <v>3</v>
       </c>
       <c r="H12" s="10">
-        <f>INDEX(detail!F4:F99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>420.8759</v>
+        <f>INDEX(detail!F4:F100000,COUNTA(detail!$B4:$B99999))/10000</f>
+        <v>420.876</v>
       </c>
       <c r="I12" s="9">
         <f>INDEX(detail!G4:G99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>107388</v>
+        <v>4000</v>
       </c>
       <c r="J12" s="9">
         <f>INDEX(detail!H4:H99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>1626</v>
+        <v>1580</v>
       </c>
       <c r="K12" s="18">
         <f>INDEX(detail!I4:I99999,COUNTA(detail!$B4:$B99999))</f>
-        <v>0.8705</v>
+        <v>1</v>
       </c>
       <c r="L12" s="10">
         <f>INDEX(detail!J4:J99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>371.673</v>
+        <v>377.5478</v>
       </c>
       <c r="M12" s="19">
         <f>INDEX(detail!K4:K99999,COUNTA(detail!$B4:$B99999))/10000</f>
-        <v>49.2029</v>
+        <v>43.3282</v>
       </c>
       <c r="N12" s="20">
         <f>L12+L17</f>
-        <v>498.8258</v>
+        <v>1091.4444</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="5:14">
+    <row r="13" ht="14.25" hidden="1" spans="5:14">
       <c r="E13">
         <f>I13+I18</f>
-        <v>1019364</v>
+        <v>42680</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="9" t="s">
@@ -11406,7 +13963,7 @@
       </c>
       <c r="H13" s="10">
         <f>INDEX(detail!L4:L99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>0.9987</v>
+        <v>0.9988</v>
       </c>
       <c r="I13" s="9">
         <f>INDEX(detail!M4:M99999,COUNTA(detail!$B$4:$B$99999))</f>
@@ -11430,13 +13987,13 @@
       </c>
       <c r="N13" s="20">
         <f>L13+L18</f>
-        <v>102.9351</v>
+        <v>652.3453</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="5:14">
+    <row r="14" ht="14.25" hidden="1" spans="5:14">
       <c r="E14">
         <f>I14+I19</f>
-        <v>221073</v>
+        <v>25864</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="9" t="s">
@@ -11468,17 +14025,17 @@
       </c>
       <c r="N14" s="20">
         <f t="shared" ref="N14:N15" si="0">L14+L19</f>
-        <v>22.1073</v>
+        <v>106.5736</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="5:14">
+    <row r="15" ht="14.25" hidden="1" spans="5:14">
       <c r="E15">
         <f>I15+I20</f>
-        <v>650271</v>
+        <v>13305</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H15" s="10">
         <f>INDEX(detail!X4:X99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
@@ -11506,31 +14063,31 @@
       </c>
       <c r="N15" s="20">
         <f t="shared" si="0"/>
-        <v>65.0271</v>
+        <v>340.6664</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="6:13">
       <c r="F16" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="13">
         <f>SUM(H12:H15)</f>
-        <v>421.8746</v>
+        <v>421.8748</v>
       </c>
       <c r="I16" s="12">
         <f>SUM(I12:I15)</f>
-        <v>107388</v>
+        <v>4000</v>
       </c>
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
       <c r="L16" s="13">
         <f>SUM(L12:L15)</f>
-        <v>372.6717</v>
+        <v>378.5465</v>
       </c>
       <c r="M16" s="22">
         <f>SUM(M12:M15)</f>
-        <v>49.2029</v>
+        <v>43.3282</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="6:13">
@@ -11546,23 +14103,23 @@
       </c>
       <c r="I17" s="9">
         <f>INDEX(detail!AE4:AE99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1271528</v>
+        <v>24505</v>
       </c>
       <c r="J17" s="9">
         <f>INDEX(detail!AF4:AF99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1659</v>
+        <v>1604</v>
       </c>
       <c r="K17" s="18">
         <f>INDEX(detail!AG4:AG99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.6548</v>
+        <v>0.0188</v>
       </c>
       <c r="L17" s="10">
         <f>INDEX(detail!AH4:AH99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>127.1528</v>
+        <v>713.8966</v>
       </c>
       <c r="M17" s="19">
         <f>INDEX(detail!AI4:AI99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>3462.2914</v>
+        <v>2875.5476</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="6:13">
@@ -11576,23 +14133,23 @@
       </c>
       <c r="I18" s="9">
         <f>INDEX(detail!AK4:AK99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1019364</v>
+        <v>42680</v>
       </c>
       <c r="J18" s="9">
         <f>INDEX(detail!AL4:AL99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1738</v>
+        <v>1715</v>
       </c>
       <c r="K18" s="18">
         <f>INDEX(detail!AM4:AM99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.9922</v>
+        <v>0.0387</v>
       </c>
       <c r="L18" s="10">
         <f>INDEX(detail!AN4:AN99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>101.9364</v>
+        <v>651.3466</v>
       </c>
       <c r="M18" s="19">
         <f>INDEX(detail!AO4:AO99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1774.9744</v>
+        <v>1225.5642</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="6:13">
@@ -11606,29 +14163,29 @@
       </c>
       <c r="I19" s="9">
         <f>INDEX(detail!AQ4:AQ99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>221073</v>
+        <v>25864</v>
       </c>
       <c r="J19" s="9">
         <f>INDEX(detail!AR4:AR99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1802</v>
+        <v>1783</v>
       </c>
       <c r="K19" s="18">
         <f>INDEX(detail!AS4:AS99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1</v>
+        <v>0.1161</v>
       </c>
       <c r="L19" s="10">
         <f>INDEX(detail!AT4:AT99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>22.1073</v>
+        <v>106.5736</v>
       </c>
       <c r="M19" s="19">
         <f>INDEX(detail!AU4:AU99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>428.1527</v>
+        <v>343.6864</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="6:13">
       <c r="F20" s="8"/>
       <c r="G20" s="9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H20" s="10">
         <f>INDEX(detail!AV4:AV99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
@@ -11636,28 +14193,28 @@
       </c>
       <c r="I20" s="9">
         <f>INDEX(detail!AW4:AW99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>650271</v>
+        <v>13305</v>
       </c>
       <c r="J20" s="9">
         <f>INDEX(detail!AX4:AX99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>1683</v>
+        <v>1747</v>
       </c>
       <c r="K20" s="18">
         <f>INDEX(detail!AY4:AY99999,COUNTA(detail!$B$4:$B$99999))</f>
-        <v>0.774</v>
+        <v>0.0199</v>
       </c>
       <c r="L20" s="10">
         <f>INDEX(detail!AZ4:AZ99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>65.0271</v>
+        <v>340.6664</v>
       </c>
       <c r="M20" s="19">
         <f>INDEX(detail!BA4:BA99999,COUNTA(detail!$B$4:$B$99999))/10000</f>
-        <v>1143.2051</v>
+        <v>867.5658</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="6:13">
       <c r="F21" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="13">
@@ -11666,41 +14223,41 @@
       </c>
       <c r="I21" s="12">
         <f t="shared" ref="I21:M21" si="1">SUM(I17:I20)</f>
-        <v>3162236</v>
+        <v>106354</v>
       </c>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="13">
         <f t="shared" si="1"/>
-        <v>316.2236</v>
+        <v>1812.4832</v>
       </c>
       <c r="M21" s="22">
         <f t="shared" si="1"/>
-        <v>6808.6236</v>
+        <v>5312.364</v>
       </c>
     </row>
     <row r="22" ht="19.5" spans="6:13">
       <c r="F22" s="14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="16">
         <f>H16+H21</f>
-        <v>7546.7218</v>
+        <v>7546.722</v>
       </c>
       <c r="I22" s="15">
         <f t="shared" ref="I22:M22" si="2">I16+I21</f>
-        <v>3269624</v>
+        <v>110354</v>
       </c>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
       <c r="L22" s="16">
         <f>L16+L21</f>
-        <v>688.8953</v>
+        <v>2191.0297</v>
       </c>
       <c r="M22" s="23">
         <f t="shared" si="2"/>
-        <v>6857.8265</v>
+        <v>5355.6922</v>
       </c>
     </row>
   </sheetData>
@@ -11724,7 +14281,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="A11:H14"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11736,19 +14293,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11756,7 +14313,7 @@
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1">
         <v>5000</v>
@@ -11773,7 +14330,7 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1">
         <v>6280</v>
@@ -11790,7 +14347,7 @@
         <v>2014</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>17565</v>
@@ -11807,7 +14364,7 @@
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1">
         <v>143967</v>
@@ -11824,7 +14381,7 @@
         <v>2014</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1">
         <v>119793</v>
@@ -11841,7 +14398,7 @@
         <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1">
         <v>27000</v>
@@ -11858,7 +14415,7 @@
         <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>638007</v>
@@ -11870,13 +14427,13 @@
         <v>1495</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="K8" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -11884,7 +14441,7 @@
         <v>2015</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>739630</v>
@@ -11896,7 +14453,7 @@
         <v>1507</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="K9" s="5">
         <v>2330484</v>
@@ -11910,7 +14467,7 @@
         <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>660242</v>
@@ -11922,7 +14479,7 @@
         <v>1480</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="K10" s="5">
         <v>1719477</v>
@@ -11936,7 +14493,7 @@
         <v>2015</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1">
         <v>5000</v>
@@ -11948,7 +14505,7 @@
         <v>1495</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K11" s="5">
         <v>1617854</v>
@@ -11962,7 +14519,7 @@
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1">
         <v>6280</v>
@@ -11974,7 +14531,7 @@
         <v>1507</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="K12" s="5">
         <v>1697242</v>
@@ -11988,7 +14545,7 @@
         <v>2015</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1">
         <v>17565</v>
@@ -12000,7 +14557,7 @@
         <v>1480</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K13" s="5">
         <v>7365057</v>
@@ -12014,7 +14571,7 @@
         <v>2014</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1">
         <v>143967</v>
@@ -12031,7 +14588,7 @@
         <v>2015</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1">
         <v>119793</v>
@@ -12048,7 +14605,7 @@
         <v>2014</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1">
         <v>27000</v>
@@ -12065,7 +14622,7 @@
         <v>2015</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C17">
         <v>638007</v>
@@ -12082,7 +14639,7 @@
         <v>2014</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C18">
         <v>739630</v>
@@ -12099,7 +14656,7 @@
         <v>2015</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C19">
         <v>660242</v>
@@ -12116,7 +14673,7 @@
         <v>2014</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1">
         <v>5000</v>
@@ -12133,7 +14690,7 @@
         <v>2015</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1">
         <v>6280</v>
@@ -12150,7 +14707,7 @@
         <v>2014</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1">
         <v>17565</v>
@@ -12167,7 +14724,7 @@
         <v>2015</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1">
         <v>143967</v>
@@ -12184,7 +14741,7 @@
         <v>2014</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1">
         <v>119793</v>
@@ -12201,7 +14758,7 @@
         <v>2015</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1">
         <v>27000</v>
@@ -12218,7 +14775,7 @@
         <v>2014</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>638007</v>
@@ -12235,7 +14792,7 @@
         <v>2015</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <v>739630</v>
@@ -12252,7 +14809,7 @@
         <v>2014</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>660242</v>
@@ -12269,7 +14826,7 @@
         <v>2015</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1">
         <v>5000</v>
@@ -12286,7 +14843,7 @@
         <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C30" s="1">
         <v>6280</v>
@@ -12303,7 +14860,7 @@
         <v>2015</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1">
         <v>17565</v>
@@ -12320,7 +14877,7 @@
         <v>2014</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1">
         <v>143967</v>
@@ -12337,7 +14894,7 @@
         <v>2015</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1">
         <v>119793</v>
